--- a/Inicio/EDT (check) .xlsx
+++ b/Inicio/EDT (check) .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2F5E80-E1E8-4BCB-8622-79B2E74D4224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E63ED5-FAFB-4A60-A819-C0115A1C3FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -415,6 +415,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -866,7 +872,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,7 +907,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,8 +1131,8 @@
   <dimension ref="A1:AG1051"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7:AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Inicio/EDT (check) .xlsx
+++ b/Inicio/EDT (check) .xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Inicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A54BA-19BA-48BB-9479-ACD72A82A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D811B1-D6B5-4D34-9297-73A51D5F45E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="kAqDacQKzRdPMBfRgWHI2hAy6Z4ukjDC/71tIbyAm74="/>
     </ext>
@@ -37,6 +48,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -53,6 +65,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -69,6 +82,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -85,6 +99,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -101,6 +116,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -117,6 +133,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -136,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>ESTRUCTURA DE DESGLOSE DE TRABAJO EDT</t>
   </si>
@@ -172,9 +189,6 @@
   </si>
   <si>
     <t>1.1.1 Acta de Constitución del Proyecto</t>
-  </si>
-  <si>
-    <t>1.4.1 Controi integrado de Cambios</t>
   </si>
   <si>
     <t>1.5.1 Acta de Cierre del Proyecto</t>
@@ -285,13 +299,40 @@
     <t>1.2.6 Plan de Comunicación</t>
   </si>
   <si>
-    <t>1.2.7 Planificación del Diseño del Sistema</t>
+    <t>1.2.9 Diseño Casos de Uso</t>
   </si>
   <si>
-    <t>1.2.8 Diagrama arquitectura de software</t>
+    <t>1.4.3 Control de Calidad</t>
   </si>
   <si>
-    <t>1.2.9 Diseño Casos de Uso</t>
+    <t>1.4.4 Seguimiento de Cronograma</t>
+  </si>
+  <si>
+    <t>1.4.5 Gestión de Comunicaciones</t>
+  </si>
+  <si>
+    <t>1.4.6 Control de Alcance</t>
+  </si>
+  <si>
+    <t>1.2.7 Diseño del Sistema</t>
+  </si>
+  <si>
+    <t>1.2.8 Diagramación</t>
+  </si>
+  <si>
+    <t>1.2.7.1 Modelado de Base de Datos</t>
+  </si>
+  <si>
+    <t>1.2.7.2 Diseño de la Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>1.2.7.3 Diseño de la Infraestructura</t>
+  </si>
+  <si>
+    <t>1.2.8.1 Diagrama de Arquitectura de Infraestructura</t>
+  </si>
+  <si>
+    <t>1.2.8.2 Diagrama de Arquitectura del Software (MTV)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -322,6 +363,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -442,8 +484,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +569,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -809,9 +883,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +933,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,19 +1170,19 @@
   </sheetPr>
   <dimension ref="A1:AE921"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.69921875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="30.296875" customWidth="1"/>
     <col min="6" max="6" width="16.69921875" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="56.5" customWidth="1"/>
     <col min="8" max="14" width="3" customWidth="1"/>
     <col min="15" max="15" width="25.8984375" customWidth="1"/>
     <col min="16" max="16" width="37.69921875" customWidth="1"/>
@@ -1100,13 +1190,13 @@
     <col min="18" max="18" width="3" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
     <col min="20" max="20" width="8.3984375" customWidth="1"/>
-    <col min="21" max="21" width="33" customWidth="1"/>
+    <col min="21" max="21" width="36.5" customWidth="1"/>
     <col min="22" max="22" width="13.3984375" customWidth="1"/>
     <col min="23" max="23" width="26.09765625" customWidth="1"/>
     <col min="24" max="31" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="3" customHeight="1">
+    <row r="1" spans="1:31" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1139,42 +1229,42 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="35.25" customHeight="1">
+    <row r="2" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1">
+    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1207,13 +1297,13 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="24.75" customHeight="1">
+    <row r="4" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1229,9 +1319,9 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1244,31 +1334,31 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="24.75" customHeight="1">
+    <row r="5" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="50">
         <v>45546</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="51"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="52"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1281,7 +1371,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="18" customHeight="1">
+    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1314,112 +1404,112 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" ht="19.2" customHeight="1">
+    <row r="7" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>22</v>
+      <c r="C7" s="36" t="s">
+        <v>21</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="36" customHeight="1">
+    <row r="8" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="18" customHeight="1">
+    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="18" customHeight="1">
+    <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="7"/>
@@ -1452,9 +1542,9 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="66" customHeight="1">
+    <row r="11" spans="1:31" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13" t="s">
@@ -1471,11 +1561,11 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="52" t="s">
-        <v>18</v>
+      <c r="O11" s="53" t="s">
+        <v>17</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
       <c r="R11" s="15"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
@@ -1495,9 +1585,9 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="18" customHeight="1">
+    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="14"/>
@@ -1528,9 +1618,9 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="18" customHeight="1">
+    <row r="13" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6"/>
@@ -1573,9 +1663,9 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="68.400000000000006" customHeight="1">
+    <row r="14" spans="1:31" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
       <c r="E14" s="19" t="s">
@@ -1583,7 +1673,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1594,18 +1684,18 @@
       <c r="N14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V14" s="18"/>
       <c r="W14" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -1616,9 +1706,9 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="18" customHeight="1">
+    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
       <c r="E15" s="16" t="s">
@@ -1659,17 +1749,17 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" ht="57" customHeight="1">
+    <row r="16" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
       <c r="E16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1680,18 +1770,18 @@
       <c r="N16" s="17"/>
       <c r="O16" s="16"/>
       <c r="P16" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
-      <c r="U16" s="22" t="s">
-        <v>15</v>
+      <c r="U16" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -1702,9 +1792,9 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="6"/>
       <c r="D17" s="10"/>
       <c r="E17" s="16" t="s">
@@ -1741,17 +1831,17 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" ht="60" customHeight="1">
+    <row r="18" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="6"/>
       <c r="D18" s="10"/>
       <c r="E18" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1762,16 +1852,18 @@
       <c r="N18" s="17"/>
       <c r="O18" s="16"/>
       <c r="P18" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="U18" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="V18" s="18"/>
       <c r="W18" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -1782,9 +1874,9 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="6"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16" t="s">
@@ -1819,17 +1911,17 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" ht="58.5" customHeight="1">
+    <row r="20" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
       <c r="E20" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1840,13 +1932,15 @@
       <c r="N20" s="25"/>
       <c r="O20" s="26"/>
       <c r="P20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+      <c r="U20" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
       <c r="X20" s="11"/>
@@ -1858,9 +1952,9 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="6"/>
       <c r="D21" s="10"/>
       <c r="E21" s="16" t="s">
@@ -1897,17 +1991,17 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="61.5" customHeight="1">
+    <row r="22" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="6"/>
       <c r="D22" s="10"/>
       <c r="E22" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -1918,13 +2012,15 @@
       <c r="N22" s="25"/>
       <c r="O22" s="26"/>
       <c r="P22" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+      <c r="U22" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="11"/>
@@ -1936,9 +2032,9 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="6"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
@@ -1973,17 +2069,17 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="71.25" customHeight="1">
+    <row r="24" spans="1:31" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="6"/>
       <c r="D24" s="10"/>
       <c r="E24" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -1994,13 +2090,13 @@
       <c r="N24" s="25"/>
       <c r="O24" s="26"/>
       <c r="P24" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="U24" s="33"/>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="X24" s="11"/>
@@ -2012,9 +2108,9 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="6"/>
       <c r="D25" s="10"/>
       <c r="E25" s="17"/>
@@ -2049,15 +2145,15 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="59.25" customHeight="1">
+    <row r="26" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="34"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="6"/>
       <c r="D26" s="10"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="25"/>
@@ -2068,7 +2164,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="26"/>
       <c r="P26" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="18"/>
@@ -2086,9 +2182,9 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="34"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="6"/>
       <c r="D27" s="10"/>
       <c r="E27" s="17"/>
@@ -2123,15 +2219,15 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" ht="46.5" customHeight="1">
+    <row r="28" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="34"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="6"/>
       <c r="D28" s="10"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="25"/>
@@ -2142,7 +2238,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
       <c r="P28" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="18"/>
@@ -2160,9 +2256,9 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" ht="18" customHeight="1">
+    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="34"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="6"/>
       <c r="D29" s="10"/>
       <c r="E29" s="17"/>
@@ -2197,15 +2293,15 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" ht="66" customHeight="1">
+    <row r="30" spans="1:31" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="6"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -2216,7 +2312,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="26"/>
       <c r="P30" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="18"/>
@@ -2234,13 +2330,13 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="18" customHeight="1">
+    <row r="31" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="6"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="16" t="s">
         <v>10</v>
       </c>
@@ -2271,26 +2367,26 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="58.8" customHeight="1">
+    <row r="32" spans="1:31" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="6"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="22" t="s">
-        <v>49</v>
+      <c r="E32" s="25"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="26"/>
       <c r="P32" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="18"/>
@@ -2308,21 +2404,21 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="24.6" customHeight="1">
+    <row r="33" spans="1:31" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="6"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="16"/>
@@ -2345,26 +2441,26 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="91.8" customHeight="1">
+    <row r="34" spans="1:31" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="6"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="32" t="s">
-        <v>50</v>
+      <c r="E34" s="25"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="16"/>
       <c r="P34" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="18"/>
@@ -2382,20 +2478,18 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="22.8" customHeight="1">
+    <row r="35" spans="1:31" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="6"/>
       <c r="D35" s="10"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
@@ -2419,15 +2513,15 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" ht="52.2" customHeight="1">
+    <row r="36" spans="1:31" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="34"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="6"/>
       <c r="D36" s="10"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="32" t="s">
-        <v>51</v>
+      <c r="G36" s="54" t="s">
+        <v>56</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -2438,7 +2532,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="16"/>
       <c r="P36" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="18"/>
@@ -2456,14 +2550,14 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="18" customHeight="1">
+    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="34"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="6"/>
       <c r="D37" s="10"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -2491,24 +2585,26 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="69.599999999999994" customHeight="1">
+    <row r="38" spans="1:31" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="6"/>
       <c r="D38" s="10"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="16"/>
       <c r="P38" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="18"/>
@@ -2526,18 +2622,18 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
-      <c r="B39" s="34"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="6"/>
       <c r="D39" s="10"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
@@ -2561,24 +2657,26 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" ht="84.6" customHeight="1">
+    <row r="40" spans="1:31" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-      <c r="B40" s="34"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="6"/>
       <c r="D40" s="10"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="24"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="58" t="s">
+        <v>54</v>
+      </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="16"/>
       <c r="P40" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="18"/>
@@ -2596,18 +2694,20 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" ht="18" customHeight="1">
+    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="6"/>
       <c r="D41" s="10"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
@@ -2631,24 +2731,26 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" ht="61.5" customHeight="1">
+    <row r="42" spans="1:31" ht="84" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
-      <c r="B42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="6"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="24"/>
+      <c r="G42" s="54" t="s">
+        <v>58</v>
+      </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="16"/>
       <c r="P42" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="18"/>
@@ -2666,14 +2768,14 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" ht="22.5" customHeight="1">
+    <row r="43" spans="1:31" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
-      <c r="B43" s="34"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="6"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="G43" s="57"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -2699,14 +2801,16 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" ht="58.5" customHeight="1">
+    <row r="44" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="6"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="G44" s="54" t="s">
+        <v>59</v>
+      </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -2732,14 +2836,14 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" ht="18" customHeight="1">
+    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
-      <c r="B45" s="34"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="6"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -2765,14 +2869,16 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31" ht="55.5" customHeight="1">
+    <row r="46" spans="1:31" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
-      <c r="B46" s="34"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="6"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="56" t="s">
+        <v>48</v>
+      </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -2798,9 +2904,9 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" ht="18" customHeight="1">
+    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
-      <c r="B47" s="34"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="6"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17"/>
@@ -2831,9 +2937,9 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" ht="67.5" customHeight="1">
+    <row r="48" spans="1:31" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
-      <c r="B48" s="34"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="6"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17"/>
@@ -2864,9 +2970,9 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" ht="18" customHeight="1">
+    <row r="49" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
-      <c r="B49" s="34"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="6"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17"/>
@@ -2897,7 +3003,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" ht="17.25" customHeight="1">
+    <row r="50" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2930,7 +3036,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" ht="17.25" customHeight="1">
+    <row r="51" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2963,7 +3069,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" ht="17.25" customHeight="1">
+    <row r="52" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2996,7 +3102,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" ht="17.25" customHeight="1">
+    <row r="53" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3029,7 +3135,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" ht="17.25" customHeight="1">
+    <row r="54" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3062,7 +3168,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" ht="17.25" customHeight="1">
+    <row r="55" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3095,7 +3201,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" ht="17.25" customHeight="1">
+    <row r="56" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3128,7 +3234,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" ht="17.25" customHeight="1">
+    <row r="57" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3161,7 +3267,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" ht="17.25" customHeight="1">
+    <row r="58" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3194,7 +3300,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" ht="17.25" customHeight="1">
+    <row r="59" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3227,7 +3333,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" ht="17.25" customHeight="1">
+    <row r="60" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3260,7 +3366,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" ht="17.25" customHeight="1">
+    <row r="61" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3293,7 +3399,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" ht="17.25" customHeight="1">
+    <row r="62" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3326,7 +3432,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" ht="17.25" customHeight="1">
+    <row r="63" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3359,7 +3465,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" ht="17.25" customHeight="1">
+    <row r="64" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3392,7 +3498,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" ht="17.25" customHeight="1">
+    <row r="65" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3425,7 +3531,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" ht="17.25" customHeight="1">
+    <row r="66" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3458,7 +3564,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" ht="17.25" customHeight="1">
+    <row r="67" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3491,7 +3597,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" ht="17.25" customHeight="1">
+    <row r="68" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3524,7 +3630,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" ht="17.25" customHeight="1">
+    <row r="69" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3557,7 +3663,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" ht="17.25" customHeight="1">
+    <row r="70" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3590,7 +3696,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" ht="17.25" customHeight="1">
+    <row r="71" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3623,7 +3729,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" ht="17.25" customHeight="1">
+    <row r="72" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3656,7 +3762,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" ht="17.25" customHeight="1">
+    <row r="73" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3689,7 +3795,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" ht="17.25" customHeight="1">
+    <row r="74" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3722,7 +3828,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" ht="17.25" customHeight="1">
+    <row r="75" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3755,7 +3861,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" ht="17.25" customHeight="1">
+    <row r="76" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3788,7 +3894,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" ht="17.25" customHeight="1">
+    <row r="77" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3821,7 +3927,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" ht="17.25" customHeight="1">
+    <row r="78" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3854,7 +3960,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" ht="17.25" customHeight="1">
+    <row r="79" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3887,7 +3993,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" ht="17.25" customHeight="1">
+    <row r="80" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3920,7 +4026,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" ht="17.25" customHeight="1">
+    <row r="81" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3953,7 +4059,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" ht="17.25" customHeight="1">
+    <row r="82" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3986,7 +4092,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" ht="17.25" customHeight="1">
+    <row r="83" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4019,7 +4125,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31" ht="17.25" customHeight="1">
+    <row r="84" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4052,7 +4158,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" ht="17.25" customHeight="1">
+    <row r="85" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4085,7 +4191,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" ht="17.25" customHeight="1">
+    <row r="86" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4118,7 +4224,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" ht="17.25" customHeight="1">
+    <row r="87" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4151,7 +4257,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" ht="17.25" customHeight="1">
+    <row r="88" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4184,7 +4290,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" ht="17.25" customHeight="1">
+    <row r="89" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4217,7 +4323,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" ht="17.25" customHeight="1">
+    <row r="90" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4250,7 +4356,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31" ht="17.25" customHeight="1">
+    <row r="91" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4283,7 +4389,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" ht="17.25" customHeight="1">
+    <row r="92" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4316,7 +4422,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" ht="17.25" customHeight="1">
+    <row r="93" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4349,7 +4455,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" ht="17.25" customHeight="1">
+    <row r="94" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4382,7 +4488,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" ht="17.25" customHeight="1">
+    <row r="95" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4415,7 +4521,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" ht="17.25" customHeight="1">
+    <row r="96" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4448,7 +4554,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" ht="17.25" customHeight="1">
+    <row r="97" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4481,7 +4587,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31" ht="17.25" customHeight="1">
+    <row r="98" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4514,7 +4620,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" ht="17.25" customHeight="1">
+    <row r="99" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4547,7 +4653,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" ht="17.25" customHeight="1">
+    <row r="100" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4580,7 +4686,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" ht="17.25" customHeight="1">
+    <row r="101" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4613,7 +4719,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" ht="17.25" customHeight="1">
+    <row r="102" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4646,7 +4752,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" ht="17.25" customHeight="1">
+    <row r="103" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4679,7 +4785,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" ht="17.25" customHeight="1">
+    <row r="104" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4712,7 +4818,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" ht="17.25" customHeight="1">
+    <row r="105" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4745,7 +4851,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" ht="17.25" customHeight="1">
+    <row r="106" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4778,7 +4884,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" ht="17.25" customHeight="1">
+    <row r="107" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4811,7 +4917,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" ht="17.25" customHeight="1">
+    <row r="108" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4844,7 +4950,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" ht="17.25" customHeight="1">
+    <row r="109" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4877,7 +4983,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" ht="17.25" customHeight="1">
+    <row r="110" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4910,7 +5016,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" ht="17.25" customHeight="1">
+    <row r="111" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4943,7 +5049,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" ht="17.25" customHeight="1">
+    <row r="112" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4976,7 +5082,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" ht="17.25" customHeight="1">
+    <row r="113" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5009,7 +5115,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" ht="17.25" customHeight="1">
+    <row r="114" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5042,7 +5148,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" ht="17.25" customHeight="1">
+    <row r="115" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5075,7 +5181,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" ht="17.25" customHeight="1">
+    <row r="116" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5108,7 +5214,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" ht="17.25" customHeight="1">
+    <row r="117" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5141,7 +5247,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" ht="17.25" customHeight="1">
+    <row r="118" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5174,7 +5280,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" ht="17.25" customHeight="1">
+    <row r="119" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5207,7 +5313,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" ht="17.25" customHeight="1">
+    <row r="120" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5240,7 +5346,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" ht="17.25" customHeight="1">
+    <row r="121" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5273,7 +5379,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" ht="17.25" customHeight="1">
+    <row r="122" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5306,7 +5412,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" ht="17.25" customHeight="1">
+    <row r="123" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5339,7 +5445,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" ht="17.25" customHeight="1">
+    <row r="124" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5372,7 +5478,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" ht="17.25" customHeight="1">
+    <row r="125" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5405,7 +5511,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" ht="17.25" customHeight="1">
+    <row r="126" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5438,7 +5544,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" ht="17.25" customHeight="1">
+    <row r="127" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5471,7 +5577,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" ht="17.25" customHeight="1">
+    <row r="128" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5504,7 +5610,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" ht="17.25" customHeight="1">
+    <row r="129" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5537,7 +5643,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" ht="17.25" customHeight="1">
+    <row r="130" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5570,7 +5676,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" ht="17.25" customHeight="1">
+    <row r="131" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5603,7 +5709,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" ht="17.25" customHeight="1">
+    <row r="132" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5636,7 +5742,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" ht="17.25" customHeight="1">
+    <row r="133" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5669,7 +5775,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" ht="17.25" customHeight="1">
+    <row r="134" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5702,7 +5808,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" ht="17.25" customHeight="1">
+    <row r="135" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5735,7 +5841,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
     </row>
-    <row r="136" spans="1:31" ht="17.25" customHeight="1">
+    <row r="136" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5768,7 +5874,7 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
     </row>
-    <row r="137" spans="1:31" ht="17.25" customHeight="1">
+    <row r="137" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5801,7 +5907,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
     </row>
-    <row r="138" spans="1:31" ht="17.25" customHeight="1">
+    <row r="138" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5834,7 +5940,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
     </row>
-    <row r="139" spans="1:31" ht="17.25" customHeight="1">
+    <row r="139" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5867,7 +5973,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
     </row>
-    <row r="140" spans="1:31" ht="17.25" customHeight="1">
+    <row r="140" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5900,7 +6006,7 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
     </row>
-    <row r="141" spans="1:31" ht="17.25" customHeight="1">
+    <row r="141" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5933,7 +6039,7 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
     </row>
-    <row r="142" spans="1:31" ht="17.25" customHeight="1">
+    <row r="142" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5966,7 +6072,7 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
     </row>
-    <row r="143" spans="1:31" ht="17.25" customHeight="1">
+    <row r="143" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5999,7 +6105,7 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
     </row>
-    <row r="144" spans="1:31" ht="17.25" customHeight="1">
+    <row r="144" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6032,7 +6138,7 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
     </row>
-    <row r="145" spans="1:31" ht="17.25" customHeight="1">
+    <row r="145" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6065,7 +6171,7 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
     </row>
-    <row r="146" spans="1:31" ht="17.25" customHeight="1">
+    <row r="146" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6098,7 +6204,7 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
     </row>
-    <row r="147" spans="1:31" ht="17.25" customHeight="1">
+    <row r="147" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6131,7 +6237,7 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
     </row>
-    <row r="148" spans="1:31" ht="15.75" customHeight="1">
+    <row r="148" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6164,7 +6270,7 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
     </row>
-    <row r="149" spans="1:31" ht="15.75" customHeight="1">
+    <row r="149" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6197,7 +6303,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
     </row>
-    <row r="150" spans="1:31" ht="15.75" customHeight="1">
+    <row r="150" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6230,7 +6336,7 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
     </row>
-    <row r="151" spans="1:31" ht="15.75" customHeight="1">
+    <row r="151" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6263,7 +6369,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
     </row>
-    <row r="152" spans="1:31" ht="15.75" customHeight="1">
+    <row r="152" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6296,7 +6402,7 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
     </row>
-    <row r="153" spans="1:31" ht="15.75" customHeight="1">
+    <row r="153" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6329,7 +6435,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
     </row>
-    <row r="154" spans="1:31" ht="15.75" customHeight="1">
+    <row r="154" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6362,7 +6468,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
     </row>
-    <row r="155" spans="1:31" ht="15.75" customHeight="1">
+    <row r="155" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6395,7 +6501,7 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
     </row>
-    <row r="156" spans="1:31" ht="15.75" customHeight="1">
+    <row r="156" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6428,7 +6534,7 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
     </row>
-    <row r="157" spans="1:31" ht="15.75" customHeight="1">
+    <row r="157" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6461,7 +6567,7 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
     </row>
-    <row r="158" spans="1:31" ht="15.75" customHeight="1">
+    <row r="158" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6494,7 +6600,7 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="1:31" ht="15.75" customHeight="1">
+    <row r="159" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6527,7 +6633,7 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
     </row>
-    <row r="160" spans="1:31" ht="15.75" customHeight="1">
+    <row r="160" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6560,7 +6666,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
     </row>
-    <row r="161" spans="1:31" ht="15.75" customHeight="1">
+    <row r="161" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6593,7 +6699,7 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
     </row>
-    <row r="162" spans="1:31" ht="15.75" customHeight="1">
+    <row r="162" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6626,7 +6732,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
     </row>
-    <row r="163" spans="1:31" ht="15.75" customHeight="1">
+    <row r="163" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6659,7 +6765,7 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
     </row>
-    <row r="164" spans="1:31" ht="15.75" customHeight="1">
+    <row r="164" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6692,7 +6798,7 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
     </row>
-    <row r="165" spans="1:31" ht="15.75" customHeight="1">
+    <row r="165" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6725,7 +6831,7 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
     </row>
-    <row r="166" spans="1:31" ht="15.75" customHeight="1">
+    <row r="166" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6758,7 +6864,7 @@
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
     </row>
-    <row r="167" spans="1:31" ht="15.75" customHeight="1">
+    <row r="167" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6791,7 +6897,7 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
     </row>
-    <row r="168" spans="1:31" ht="15.75" customHeight="1">
+    <row r="168" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6824,7 +6930,7 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
     </row>
-    <row r="169" spans="1:31" ht="15.75" customHeight="1">
+    <row r="169" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6857,7 +6963,7 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
     </row>
-    <row r="170" spans="1:31" ht="15.75" customHeight="1">
+    <row r="170" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6890,7 +6996,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
     </row>
-    <row r="171" spans="1:31" ht="15.75" customHeight="1">
+    <row r="171" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6923,7 +7029,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
     </row>
-    <row r="172" spans="1:31" ht="15.75" customHeight="1">
+    <row r="172" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6956,7 +7062,7 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
     </row>
-    <row r="173" spans="1:31" ht="15.75" customHeight="1">
+    <row r="173" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6989,7 +7095,7 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
     </row>
-    <row r="174" spans="1:31" ht="15.75" customHeight="1">
+    <row r="174" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7022,7 +7128,7 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
     </row>
-    <row r="175" spans="1:31" ht="15.75" customHeight="1">
+    <row r="175" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7055,7 +7161,7 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
     </row>
-    <row r="176" spans="1:31" ht="15.75" customHeight="1">
+    <row r="176" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7088,7 +7194,7 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
     </row>
-    <row r="177" spans="1:31" ht="15.75" customHeight="1">
+    <row r="177" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7121,7 +7227,7 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
     </row>
-    <row r="178" spans="1:31" ht="15.75" customHeight="1">
+    <row r="178" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7154,7 +7260,7 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
     </row>
-    <row r="179" spans="1:31" ht="15.75" customHeight="1">
+    <row r="179" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7187,7 +7293,7 @@
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
     </row>
-    <row r="180" spans="1:31" ht="15.75" customHeight="1">
+    <row r="180" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7220,7 +7326,7 @@
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
     </row>
-    <row r="181" spans="1:31" ht="15.75" customHeight="1">
+    <row r="181" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7253,7 +7359,7 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
     </row>
-    <row r="182" spans="1:31" ht="15.75" customHeight="1">
+    <row r="182" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7286,7 +7392,7 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
     </row>
-    <row r="183" spans="1:31" ht="15.75" customHeight="1">
+    <row r="183" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7319,7 +7425,7 @@
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
     </row>
-    <row r="184" spans="1:31" ht="15.75" customHeight="1">
+    <row r="184" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7352,7 +7458,7 @@
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
     </row>
-    <row r="185" spans="1:31" ht="15.75" customHeight="1">
+    <row r="185" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7385,7 +7491,7 @@
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
     </row>
-    <row r="186" spans="1:31" ht="15.75" customHeight="1">
+    <row r="186" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7418,7 +7524,7 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
     </row>
-    <row r="187" spans="1:31" ht="15.75" customHeight="1">
+    <row r="187" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7451,7 +7557,7 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
     </row>
-    <row r="188" spans="1:31" ht="15.75" customHeight="1">
+    <row r="188" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7484,7 +7590,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
     </row>
-    <row r="189" spans="1:31" ht="15.75" customHeight="1">
+    <row r="189" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7517,7 +7623,7 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
     </row>
-    <row r="190" spans="1:31" ht="15.75" customHeight="1">
+    <row r="190" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7550,7 +7656,7 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
     </row>
-    <row r="191" spans="1:31" ht="15.75" customHeight="1">
+    <row r="191" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7583,7 +7689,7 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
     </row>
-    <row r="192" spans="1:31" ht="15.75" customHeight="1">
+    <row r="192" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7616,7 +7722,7 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
     </row>
-    <row r="193" spans="1:31" ht="15.75" customHeight="1">
+    <row r="193" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7649,7 +7755,7 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
     </row>
-    <row r="194" spans="1:31" ht="15.75" customHeight="1">
+    <row r="194" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7682,7 +7788,7 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
     </row>
-    <row r="195" spans="1:31" ht="15.75" customHeight="1">
+    <row r="195" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7715,7 +7821,7 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
     </row>
-    <row r="196" spans="1:31" ht="15.75" customHeight="1">
+    <row r="196" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7748,7 +7854,7 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
     </row>
-    <row r="197" spans="1:31" ht="15.75" customHeight="1">
+    <row r="197" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7781,7 +7887,7 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
     </row>
-    <row r="198" spans="1:31" ht="15.75" customHeight="1">
+    <row r="198" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7814,7 +7920,7 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
     </row>
-    <row r="199" spans="1:31" ht="15.75" customHeight="1">
+    <row r="199" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7847,7 +7953,7 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
     </row>
-    <row r="200" spans="1:31" ht="15.75" customHeight="1">
+    <row r="200" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7880,7 +7986,7 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
     </row>
-    <row r="201" spans="1:31" ht="15.75" customHeight="1">
+    <row r="201" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7913,7 +8019,7 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
     </row>
-    <row r="202" spans="1:31" ht="15.75" customHeight="1">
+    <row r="202" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7946,7 +8052,7 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
     </row>
-    <row r="203" spans="1:31" ht="15.75" customHeight="1">
+    <row r="203" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7979,7 +8085,7 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
     </row>
-    <row r="204" spans="1:31" ht="15.75" customHeight="1">
+    <row r="204" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8012,7 +8118,7 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
     </row>
-    <row r="205" spans="1:31" ht="15.75" customHeight="1">
+    <row r="205" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8045,7 +8151,7 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
     </row>
-    <row r="206" spans="1:31" ht="15.75" customHeight="1">
+    <row r="206" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8078,7 +8184,7 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
     </row>
-    <row r="207" spans="1:31" ht="15.75" customHeight="1">
+    <row r="207" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8111,7 +8217,7 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
     </row>
-    <row r="208" spans="1:31" ht="15.75" customHeight="1">
+    <row r="208" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8144,7 +8250,7 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
     </row>
-    <row r="209" spans="1:31" ht="15.75" customHeight="1">
+    <row r="209" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8177,7 +8283,7 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
     </row>
-    <row r="210" spans="1:31" ht="15.75" customHeight="1">
+    <row r="210" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8210,7 +8316,7 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
     </row>
-    <row r="211" spans="1:31" ht="15.75" customHeight="1">
+    <row r="211" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8243,7 +8349,7 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
     </row>
-    <row r="212" spans="1:31" ht="15.75" customHeight="1">
+    <row r="212" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8276,7 +8382,7 @@
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
     </row>
-    <row r="213" spans="1:31" ht="15.75" customHeight="1">
+    <row r="213" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8309,7 +8415,7 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
     </row>
-    <row r="214" spans="1:31" ht="15.75" customHeight="1">
+    <row r="214" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8342,7 +8448,7 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
     </row>
-    <row r="215" spans="1:31" ht="15.75" customHeight="1">
+    <row r="215" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8375,7 +8481,7 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
     </row>
-    <row r="216" spans="1:31" ht="15.75" customHeight="1">
+    <row r="216" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8408,7 +8514,7 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
     </row>
-    <row r="217" spans="1:31" ht="15.75" customHeight="1">
+    <row r="217" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8441,7 +8547,7 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
     </row>
-    <row r="218" spans="1:31" ht="15.75" customHeight="1">
+    <row r="218" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8474,7 +8580,7 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
     </row>
-    <row r="219" spans="1:31" ht="15.75" customHeight="1">
+    <row r="219" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8507,7 +8613,7 @@
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
     </row>
-    <row r="220" spans="1:31" ht="15.75" customHeight="1">
+    <row r="220" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8540,7 +8646,7 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
     </row>
-    <row r="221" spans="1:31" ht="15.75" customHeight="1">
+    <row r="221" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8573,7 +8679,7 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
     </row>
-    <row r="222" spans="1:31" ht="15.75" customHeight="1">
+    <row r="222" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8606,7 +8712,7 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
     </row>
-    <row r="223" spans="1:31" ht="15.75" customHeight="1">
+    <row r="223" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8639,7 +8745,7 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
     </row>
-    <row r="224" spans="1:31" ht="15.75" customHeight="1">
+    <row r="224" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8672,7 +8778,7 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
     </row>
-    <row r="225" spans="1:31" ht="15.75" customHeight="1">
+    <row r="225" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8705,7 +8811,7 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
     </row>
-    <row r="226" spans="1:31" ht="15.75" customHeight="1">
+    <row r="226" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8738,7 +8844,7 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
     </row>
-    <row r="227" spans="1:31" ht="15.75" customHeight="1">
+    <row r="227" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8771,7 +8877,7 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
     </row>
-    <row r="228" spans="1:31" ht="15.75" customHeight="1">
+    <row r="228" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8804,7 +8910,7 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
     </row>
-    <row r="229" spans="1:31" ht="15.75" customHeight="1">
+    <row r="229" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8837,7 +8943,7 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
     </row>
-    <row r="230" spans="1:31" ht="15.75" customHeight="1">
+    <row r="230" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8870,7 +8976,7 @@
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
     </row>
-    <row r="231" spans="1:31" ht="15.75" customHeight="1">
+    <row r="231" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8903,7 +9009,7 @@
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
     </row>
-    <row r="232" spans="1:31" ht="15.75" customHeight="1">
+    <row r="232" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8936,7 +9042,7 @@
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
     </row>
-    <row r="233" spans="1:31" ht="15.75" customHeight="1">
+    <row r="233" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8969,7 +9075,7 @@
       <c r="AD233" s="1"/>
       <c r="AE233" s="1"/>
     </row>
-    <row r="234" spans="1:31" ht="15.75" customHeight="1">
+    <row r="234" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9002,7 +9108,7 @@
       <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
     </row>
-    <row r="235" spans="1:31" ht="15.75" customHeight="1">
+    <row r="235" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9035,7 +9141,7 @@
       <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
     </row>
-    <row r="236" spans="1:31" ht="15.75" customHeight="1">
+    <row r="236" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9068,7 +9174,7 @@
       <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
     </row>
-    <row r="237" spans="1:31" ht="15.75" customHeight="1">
+    <row r="237" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9101,7 +9207,7 @@
       <c r="AD237" s="1"/>
       <c r="AE237" s="1"/>
     </row>
-    <row r="238" spans="1:31" ht="15.75" customHeight="1">
+    <row r="238" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9134,7 +9240,7 @@
       <c r="AD238" s="1"/>
       <c r="AE238" s="1"/>
     </row>
-    <row r="239" spans="1:31" ht="15.75" customHeight="1">
+    <row r="239" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9167,7 +9273,7 @@
       <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
     </row>
-    <row r="240" spans="1:31" ht="15.75" customHeight="1">
+    <row r="240" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9200,7 +9306,7 @@
       <c r="AD240" s="1"/>
       <c r="AE240" s="1"/>
     </row>
-    <row r="241" spans="1:31" ht="15.75" customHeight="1">
+    <row r="241" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9233,7 +9339,7 @@
       <c r="AD241" s="1"/>
       <c r="AE241" s="1"/>
     </row>
-    <row r="242" spans="1:31" ht="15.75" customHeight="1">
+    <row r="242" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9266,7 +9372,7 @@
       <c r="AD242" s="1"/>
       <c r="AE242" s="1"/>
     </row>
-    <row r="243" spans="1:31" ht="15.75" customHeight="1">
+    <row r="243" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9299,7 +9405,7 @@
       <c r="AD243" s="1"/>
       <c r="AE243" s="1"/>
     </row>
-    <row r="244" spans="1:31" ht="15.75" customHeight="1">
+    <row r="244" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9332,7 +9438,7 @@
       <c r="AD244" s="1"/>
       <c r="AE244" s="1"/>
     </row>
-    <row r="245" spans="1:31" ht="15.75" customHeight="1">
+    <row r="245" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9365,7 +9471,7 @@
       <c r="AD245" s="1"/>
       <c r="AE245" s="1"/>
     </row>
-    <row r="246" spans="1:31" ht="15.75" customHeight="1">
+    <row r="246" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9398,7 +9504,7 @@
       <c r="AD246" s="1"/>
       <c r="AE246" s="1"/>
     </row>
-    <row r="247" spans="1:31" ht="15.75" customHeight="1">
+    <row r="247" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9431,7 +9537,7 @@
       <c r="AD247" s="1"/>
       <c r="AE247" s="1"/>
     </row>
-    <row r="248" spans="1:31" ht="15.75" customHeight="1">
+    <row r="248" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9464,7 +9570,7 @@
       <c r="AD248" s="1"/>
       <c r="AE248" s="1"/>
     </row>
-    <row r="249" spans="1:31" ht="15.75" customHeight="1">
+    <row r="249" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9497,7 +9603,7 @@
       <c r="AD249" s="1"/>
       <c r="AE249" s="1"/>
     </row>
-    <row r="250" spans="1:31" ht="15.75" customHeight="1">
+    <row r="250" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9530,7 +9636,7 @@
       <c r="AD250" s="1"/>
       <c r="AE250" s="1"/>
     </row>
-    <row r="251" spans="1:31" ht="15.75" customHeight="1">
+    <row r="251" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9563,7 +9669,7 @@
       <c r="AD251" s="1"/>
       <c r="AE251" s="1"/>
     </row>
-    <row r="252" spans="1:31" ht="15.75" customHeight="1">
+    <row r="252" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9596,7 +9702,7 @@
       <c r="AD252" s="1"/>
       <c r="AE252" s="1"/>
     </row>
-    <row r="253" spans="1:31" ht="15.75" customHeight="1">
+    <row r="253" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9629,7 +9735,7 @@
       <c r="AD253" s="1"/>
       <c r="AE253" s="1"/>
     </row>
-    <row r="254" spans="1:31" ht="15.75" customHeight="1">
+    <row r="254" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9662,7 +9768,7 @@
       <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
     </row>
-    <row r="255" spans="1:31" ht="15.75" customHeight="1">
+    <row r="255" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9695,7 +9801,7 @@
       <c r="AD255" s="1"/>
       <c r="AE255" s="1"/>
     </row>
-    <row r="256" spans="1:31" ht="15.75" customHeight="1">
+    <row r="256" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9728,7 +9834,7 @@
       <c r="AD256" s="1"/>
       <c r="AE256" s="1"/>
     </row>
-    <row r="257" spans="1:31" ht="15.75" customHeight="1">
+    <row r="257" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9761,7 +9867,7 @@
       <c r="AD257" s="1"/>
       <c r="AE257" s="1"/>
     </row>
-    <row r="258" spans="1:31" ht="15.75" customHeight="1">
+    <row r="258" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9794,7 +9900,7 @@
       <c r="AD258" s="1"/>
       <c r="AE258" s="1"/>
     </row>
-    <row r="259" spans="1:31" ht="15.75" customHeight="1">
+    <row r="259" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9827,7 +9933,7 @@
       <c r="AD259" s="1"/>
       <c r="AE259" s="1"/>
     </row>
-    <row r="260" spans="1:31" ht="15.75" customHeight="1">
+    <row r="260" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -9860,7 +9966,7 @@
       <c r="AD260" s="1"/>
       <c r="AE260" s="1"/>
     </row>
-    <row r="261" spans="1:31" ht="15.75" customHeight="1">
+    <row r="261" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9893,7 +9999,7 @@
       <c r="AD261" s="1"/>
       <c r="AE261" s="1"/>
     </row>
-    <row r="262" spans="1:31" ht="15.75" customHeight="1">
+    <row r="262" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9926,7 +10032,7 @@
       <c r="AD262" s="1"/>
       <c r="AE262" s="1"/>
     </row>
-    <row r="263" spans="1:31" ht="15.75" customHeight="1">
+    <row r="263" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -9959,7 +10065,7 @@
       <c r="AD263" s="1"/>
       <c r="AE263" s="1"/>
     </row>
-    <row r="264" spans="1:31" ht="15.75" customHeight="1">
+    <row r="264" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9992,7 +10098,7 @@
       <c r="AD264" s="1"/>
       <c r="AE264" s="1"/>
     </row>
-    <row r="265" spans="1:31" ht="15.75" customHeight="1">
+    <row r="265" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10025,7 +10131,7 @@
       <c r="AD265" s="1"/>
       <c r="AE265" s="1"/>
     </row>
-    <row r="266" spans="1:31" ht="15.75" customHeight="1">
+    <row r="266" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10058,7 +10164,7 @@
       <c r="AD266" s="1"/>
       <c r="AE266" s="1"/>
     </row>
-    <row r="267" spans="1:31" ht="15.75" customHeight="1">
+    <row r="267" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10091,7 +10197,7 @@
       <c r="AD267" s="1"/>
       <c r="AE267" s="1"/>
     </row>
-    <row r="268" spans="1:31" ht="15.75" customHeight="1">
+    <row r="268" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10124,7 +10230,7 @@
       <c r="AD268" s="1"/>
       <c r="AE268" s="1"/>
     </row>
-    <row r="269" spans="1:31" ht="15.75" customHeight="1">
+    <row r="269" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10157,7 +10263,7 @@
       <c r="AD269" s="1"/>
       <c r="AE269" s="1"/>
     </row>
-    <row r="270" spans="1:31" ht="15.75" customHeight="1">
+    <row r="270" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10190,7 +10296,7 @@
       <c r="AD270" s="1"/>
       <c r="AE270" s="1"/>
     </row>
-    <row r="271" spans="1:31" ht="15.75" customHeight="1">
+    <row r="271" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10223,7 +10329,7 @@
       <c r="AD271" s="1"/>
       <c r="AE271" s="1"/>
     </row>
-    <row r="272" spans="1:31" ht="15.75" customHeight="1">
+    <row r="272" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10256,7 +10362,7 @@
       <c r="AD272" s="1"/>
       <c r="AE272" s="1"/>
     </row>
-    <row r="273" spans="1:31" ht="15.75" customHeight="1">
+    <row r="273" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10289,7 +10395,7 @@
       <c r="AD273" s="1"/>
       <c r="AE273" s="1"/>
     </row>
-    <row r="274" spans="1:31" ht="15.75" customHeight="1">
+    <row r="274" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10322,7 +10428,7 @@
       <c r="AD274" s="1"/>
       <c r="AE274" s="1"/>
     </row>
-    <row r="275" spans="1:31" ht="15.75" customHeight="1">
+    <row r="275" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10355,7 +10461,7 @@
       <c r="AD275" s="1"/>
       <c r="AE275" s="1"/>
     </row>
-    <row r="276" spans="1:31" ht="15.75" customHeight="1">
+    <row r="276" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10388,7 +10494,7 @@
       <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
     </row>
-    <row r="277" spans="1:31" ht="15.75" customHeight="1">
+    <row r="277" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10421,7 +10527,7 @@
       <c r="AD277" s="1"/>
       <c r="AE277" s="1"/>
     </row>
-    <row r="278" spans="1:31" ht="15.75" customHeight="1">
+    <row r="278" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10454,7 +10560,7 @@
       <c r="AD278" s="1"/>
       <c r="AE278" s="1"/>
     </row>
-    <row r="279" spans="1:31" ht="15.75" customHeight="1">
+    <row r="279" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10487,7 +10593,7 @@
       <c r="AD279" s="1"/>
       <c r="AE279" s="1"/>
     </row>
-    <row r="280" spans="1:31" ht="15.75" customHeight="1">
+    <row r="280" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10520,7 +10626,7 @@
       <c r="AD280" s="1"/>
       <c r="AE280" s="1"/>
     </row>
-    <row r="281" spans="1:31" ht="15.75" customHeight="1">
+    <row r="281" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10553,7 +10659,7 @@
       <c r="AD281" s="1"/>
       <c r="AE281" s="1"/>
     </row>
-    <row r="282" spans="1:31" ht="15.75" customHeight="1">
+    <row r="282" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10586,7 +10692,7 @@
       <c r="AD282" s="1"/>
       <c r="AE282" s="1"/>
     </row>
-    <row r="283" spans="1:31" ht="15.75" customHeight="1">
+    <row r="283" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10619,7 +10725,7 @@
       <c r="AD283" s="1"/>
       <c r="AE283" s="1"/>
     </row>
-    <row r="284" spans="1:31" ht="15.75" customHeight="1">
+    <row r="284" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10652,7 +10758,7 @@
       <c r="AD284" s="1"/>
       <c r="AE284" s="1"/>
     </row>
-    <row r="285" spans="1:31" ht="15.75" customHeight="1">
+    <row r="285" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10685,7 +10791,7 @@
       <c r="AD285" s="1"/>
       <c r="AE285" s="1"/>
     </row>
-    <row r="286" spans="1:31" ht="15.75" customHeight="1">
+    <row r="286" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10718,7 +10824,7 @@
       <c r="AD286" s="1"/>
       <c r="AE286" s="1"/>
     </row>
-    <row r="287" spans="1:31" ht="15.75" customHeight="1">
+    <row r="287" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10751,7 +10857,7 @@
       <c r="AD287" s="1"/>
       <c r="AE287" s="1"/>
     </row>
-    <row r="288" spans="1:31" ht="15.75" customHeight="1">
+    <row r="288" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -10784,7 +10890,7 @@
       <c r="AD288" s="1"/>
       <c r="AE288" s="1"/>
     </row>
-    <row r="289" spans="1:31" ht="15.75" customHeight="1">
+    <row r="289" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -10817,7 +10923,7 @@
       <c r="AD289" s="1"/>
       <c r="AE289" s="1"/>
     </row>
-    <row r="290" spans="1:31" ht="15.75" customHeight="1">
+    <row r="290" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -10850,7 +10956,7 @@
       <c r="AD290" s="1"/>
       <c r="AE290" s="1"/>
     </row>
-    <row r="291" spans="1:31" ht="15.75" customHeight="1">
+    <row r="291" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -10883,7 +10989,7 @@
       <c r="AD291" s="1"/>
       <c r="AE291" s="1"/>
     </row>
-    <row r="292" spans="1:31" ht="15.75" customHeight="1">
+    <row r="292" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -10916,7 +11022,7 @@
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
     </row>
-    <row r="293" spans="1:31" ht="15.75" customHeight="1">
+    <row r="293" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -10949,7 +11055,7 @@
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
     </row>
-    <row r="294" spans="1:31" ht="15.75" customHeight="1">
+    <row r="294" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -10982,7 +11088,7 @@
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
     </row>
-    <row r="295" spans="1:31" ht="15.75" customHeight="1">
+    <row r="295" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11015,7 +11121,7 @@
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
     </row>
-    <row r="296" spans="1:31" ht="15.75" customHeight="1">
+    <row r="296" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11048,7 +11154,7 @@
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
     </row>
-    <row r="297" spans="1:31" ht="15.75" customHeight="1">
+    <row r="297" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11081,7 +11187,7 @@
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
     </row>
-    <row r="298" spans="1:31" ht="15.75" customHeight="1">
+    <row r="298" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11114,7 +11220,7 @@
       <c r="AD298" s="1"/>
       <c r="AE298" s="1"/>
     </row>
-    <row r="299" spans="1:31" ht="15.75" customHeight="1">
+    <row r="299" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11147,7 +11253,7 @@
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
     </row>
-    <row r="300" spans="1:31" ht="15.75" customHeight="1">
+    <row r="300" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11180,7 +11286,7 @@
       <c r="AD300" s="1"/>
       <c r="AE300" s="1"/>
     </row>
-    <row r="301" spans="1:31" ht="15.75" customHeight="1">
+    <row r="301" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11213,7 +11319,7 @@
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
     </row>
-    <row r="302" spans="1:31" ht="15.75" customHeight="1">
+    <row r="302" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11246,7 +11352,7 @@
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
     </row>
-    <row r="303" spans="1:31" ht="15.75" customHeight="1">
+    <row r="303" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11279,7 +11385,7 @@
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
     </row>
-    <row r="304" spans="1:31" ht="15.75" customHeight="1">
+    <row r="304" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11312,7 +11418,7 @@
       <c r="AD304" s="1"/>
       <c r="AE304" s="1"/>
     </row>
-    <row r="305" spans="1:31" ht="15.75" customHeight="1">
+    <row r="305" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11345,7 +11451,7 @@
       <c r="AD305" s="1"/>
       <c r="AE305" s="1"/>
     </row>
-    <row r="306" spans="1:31" ht="15.75" customHeight="1">
+    <row r="306" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11378,7 +11484,7 @@
       <c r="AD306" s="1"/>
       <c r="AE306" s="1"/>
     </row>
-    <row r="307" spans="1:31" ht="15.75" customHeight="1">
+    <row r="307" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11411,7 +11517,7 @@
       <c r="AD307" s="1"/>
       <c r="AE307" s="1"/>
     </row>
-    <row r="308" spans="1:31" ht="15.75" customHeight="1">
+    <row r="308" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11444,7 +11550,7 @@
       <c r="AD308" s="1"/>
       <c r="AE308" s="1"/>
     </row>
-    <row r="309" spans="1:31" ht="15.75" customHeight="1">
+    <row r="309" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11477,7 +11583,7 @@
       <c r="AD309" s="1"/>
       <c r="AE309" s="1"/>
     </row>
-    <row r="310" spans="1:31" ht="15.75" customHeight="1">
+    <row r="310" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11510,7 +11616,7 @@
       <c r="AD310" s="1"/>
       <c r="AE310" s="1"/>
     </row>
-    <row r="311" spans="1:31" ht="15.75" customHeight="1">
+    <row r="311" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11543,7 +11649,7 @@
       <c r="AD311" s="1"/>
       <c r="AE311" s="1"/>
     </row>
-    <row r="312" spans="1:31" ht="15.75" customHeight="1">
+    <row r="312" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11576,7 +11682,7 @@
       <c r="AD312" s="1"/>
       <c r="AE312" s="1"/>
     </row>
-    <row r="313" spans="1:31" ht="15.75" customHeight="1">
+    <row r="313" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11609,7 +11715,7 @@
       <c r="AD313" s="1"/>
       <c r="AE313" s="1"/>
     </row>
-    <row r="314" spans="1:31" ht="15.75" customHeight="1">
+    <row r="314" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11642,7 +11748,7 @@
       <c r="AD314" s="1"/>
       <c r="AE314" s="1"/>
     </row>
-    <row r="315" spans="1:31" ht="15.75" customHeight="1">
+    <row r="315" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11675,7 +11781,7 @@
       <c r="AD315" s="1"/>
       <c r="AE315" s="1"/>
     </row>
-    <row r="316" spans="1:31" ht="15.75" customHeight="1">
+    <row r="316" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11708,7 +11814,7 @@
       <c r="AD316" s="1"/>
       <c r="AE316" s="1"/>
     </row>
-    <row r="317" spans="1:31" ht="15.75" customHeight="1">
+    <row r="317" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11741,7 +11847,7 @@
       <c r="AD317" s="1"/>
       <c r="AE317" s="1"/>
     </row>
-    <row r="318" spans="1:31" ht="15.75" customHeight="1">
+    <row r="318" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -11774,7 +11880,7 @@
       <c r="AD318" s="1"/>
       <c r="AE318" s="1"/>
     </row>
-    <row r="319" spans="1:31" ht="15.75" customHeight="1">
+    <row r="319" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -11807,7 +11913,7 @@
       <c r="AD319" s="1"/>
       <c r="AE319" s="1"/>
     </row>
-    <row r="320" spans="1:31" ht="15.75" customHeight="1">
+    <row r="320" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -11840,7 +11946,7 @@
       <c r="AD320" s="1"/>
       <c r="AE320" s="1"/>
     </row>
-    <row r="321" spans="1:31" ht="15.75" customHeight="1">
+    <row r="321" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -11873,7 +11979,7 @@
       <c r="AD321" s="1"/>
       <c r="AE321" s="1"/>
     </row>
-    <row r="322" spans="1:31" ht="15.75" customHeight="1">
+    <row r="322" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -11906,7 +12012,7 @@
       <c r="AD322" s="1"/>
       <c r="AE322" s="1"/>
     </row>
-    <row r="323" spans="1:31" ht="15.75" customHeight="1">
+    <row r="323" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -11939,7 +12045,7 @@
       <c r="AD323" s="1"/>
       <c r="AE323" s="1"/>
     </row>
-    <row r="324" spans="1:31" ht="15.75" customHeight="1">
+    <row r="324" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -11972,7 +12078,7 @@
       <c r="AD324" s="1"/>
       <c r="AE324" s="1"/>
     </row>
-    <row r="325" spans="1:31" ht="15.75" customHeight="1">
+    <row r="325" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12005,7 +12111,7 @@
       <c r="AD325" s="1"/>
       <c r="AE325" s="1"/>
     </row>
-    <row r="326" spans="1:31" ht="15.75" customHeight="1">
+    <row r="326" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12038,7 +12144,7 @@
       <c r="AD326" s="1"/>
       <c r="AE326" s="1"/>
     </row>
-    <row r="327" spans="1:31" ht="15.75" customHeight="1">
+    <row r="327" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12071,7 +12177,7 @@
       <c r="AD327" s="1"/>
       <c r="AE327" s="1"/>
     </row>
-    <row r="328" spans="1:31" ht="15.75" customHeight="1">
+    <row r="328" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12104,7 +12210,7 @@
       <c r="AD328" s="1"/>
       <c r="AE328" s="1"/>
     </row>
-    <row r="329" spans="1:31" ht="15.75" customHeight="1">
+    <row r="329" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12137,7 +12243,7 @@
       <c r="AD329" s="1"/>
       <c r="AE329" s="1"/>
     </row>
-    <row r="330" spans="1:31" ht="15.75" customHeight="1">
+    <row r="330" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12170,7 +12276,7 @@
       <c r="AD330" s="1"/>
       <c r="AE330" s="1"/>
     </row>
-    <row r="331" spans="1:31" ht="15.75" customHeight="1">
+    <row r="331" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12203,7 +12309,7 @@
       <c r="AD331" s="1"/>
       <c r="AE331" s="1"/>
     </row>
-    <row r="332" spans="1:31" ht="15.75" customHeight="1">
+    <row r="332" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12236,7 +12342,7 @@
       <c r="AD332" s="1"/>
       <c r="AE332" s="1"/>
     </row>
-    <row r="333" spans="1:31" ht="15.75" customHeight="1">
+    <row r="333" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12269,7 +12375,7 @@
       <c r="AD333" s="1"/>
       <c r="AE333" s="1"/>
     </row>
-    <row r="334" spans="1:31" ht="15.75" customHeight="1">
+    <row r="334" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12302,7 +12408,7 @@
       <c r="AD334" s="1"/>
       <c r="AE334" s="1"/>
     </row>
-    <row r="335" spans="1:31" ht="15.75" customHeight="1">
+    <row r="335" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12335,7 +12441,7 @@
       <c r="AD335" s="1"/>
       <c r="AE335" s="1"/>
     </row>
-    <row r="336" spans="1:31" ht="15.75" customHeight="1">
+    <row r="336" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12368,7 +12474,7 @@
       <c r="AD336" s="1"/>
       <c r="AE336" s="1"/>
     </row>
-    <row r="337" spans="1:31" ht="15.75" customHeight="1">
+    <row r="337" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12401,7 +12507,7 @@
       <c r="AD337" s="1"/>
       <c r="AE337" s="1"/>
     </row>
-    <row r="338" spans="1:31" ht="15.75" customHeight="1">
+    <row r="338" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12434,7 +12540,7 @@
       <c r="AD338" s="1"/>
       <c r="AE338" s="1"/>
     </row>
-    <row r="339" spans="1:31" ht="15.75" customHeight="1">
+    <row r="339" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12467,7 +12573,7 @@
       <c r="AD339" s="1"/>
       <c r="AE339" s="1"/>
     </row>
-    <row r="340" spans="1:31" ht="15.75" customHeight="1">
+    <row r="340" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12500,7 +12606,7 @@
       <c r="AD340" s="1"/>
       <c r="AE340" s="1"/>
     </row>
-    <row r="341" spans="1:31" ht="15.75" customHeight="1">
+    <row r="341" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12533,7 +12639,7 @@
       <c r="AD341" s="1"/>
       <c r="AE341" s="1"/>
     </row>
-    <row r="342" spans="1:31" ht="15.75" customHeight="1">
+    <row r="342" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12566,7 +12672,7 @@
       <c r="AD342" s="1"/>
       <c r="AE342" s="1"/>
     </row>
-    <row r="343" spans="1:31" ht="15.75" customHeight="1">
+    <row r="343" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12599,7 +12705,7 @@
       <c r="AD343" s="1"/>
       <c r="AE343" s="1"/>
     </row>
-    <row r="344" spans="1:31" ht="15.75" customHeight="1">
+    <row r="344" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12632,7 +12738,7 @@
       <c r="AD344" s="1"/>
       <c r="AE344" s="1"/>
     </row>
-    <row r="345" spans="1:31" ht="15.75" customHeight="1">
+    <row r="345" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12665,7 +12771,7 @@
       <c r="AD345" s="1"/>
       <c r="AE345" s="1"/>
     </row>
-    <row r="346" spans="1:31" ht="15.75" customHeight="1">
+    <row r="346" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12698,7 +12804,7 @@
       <c r="AD346" s="1"/>
       <c r="AE346" s="1"/>
     </row>
-    <row r="347" spans="1:31" ht="15.75" customHeight="1">
+    <row r="347" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12731,7 +12837,7 @@
       <c r="AD347" s="1"/>
       <c r="AE347" s="1"/>
     </row>
-    <row r="348" spans="1:31" ht="15.75" customHeight="1">
+    <row r="348" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12764,7 +12870,7 @@
       <c r="AD348" s="1"/>
       <c r="AE348" s="1"/>
     </row>
-    <row r="349" spans="1:31" ht="15.75" customHeight="1">
+    <row r="349" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -12797,7 +12903,7 @@
       <c r="AD349" s="1"/>
       <c r="AE349" s="1"/>
     </row>
-    <row r="350" spans="1:31" ht="15.75" customHeight="1">
+    <row r="350" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -12830,7 +12936,7 @@
       <c r="AD350" s="1"/>
       <c r="AE350" s="1"/>
     </row>
-    <row r="351" spans="1:31" ht="15.75" customHeight="1">
+    <row r="351" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -12863,7 +12969,7 @@
       <c r="AD351" s="1"/>
       <c r="AE351" s="1"/>
     </row>
-    <row r="352" spans="1:31" ht="15.75" customHeight="1">
+    <row r="352" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12896,7 +13002,7 @@
       <c r="AD352" s="1"/>
       <c r="AE352" s="1"/>
     </row>
-    <row r="353" spans="1:31" ht="15.75" customHeight="1">
+    <row r="353" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -12929,7 +13035,7 @@
       <c r="AD353" s="1"/>
       <c r="AE353" s="1"/>
     </row>
-    <row r="354" spans="1:31" ht="15.75" customHeight="1">
+    <row r="354" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -12962,7 +13068,7 @@
       <c r="AD354" s="1"/>
       <c r="AE354" s="1"/>
     </row>
-    <row r="355" spans="1:31" ht="15.75" customHeight="1">
+    <row r="355" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -12995,7 +13101,7 @@
       <c r="AD355" s="1"/>
       <c r="AE355" s="1"/>
     </row>
-    <row r="356" spans="1:31" ht="15.75" customHeight="1">
+    <row r="356" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -13028,7 +13134,7 @@
       <c r="AD356" s="1"/>
       <c r="AE356" s="1"/>
     </row>
-    <row r="357" spans="1:31" ht="15.75" customHeight="1">
+    <row r="357" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -13061,7 +13167,7 @@
       <c r="AD357" s="1"/>
       <c r="AE357" s="1"/>
     </row>
-    <row r="358" spans="1:31" ht="15.75" customHeight="1">
+    <row r="358" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -13094,7 +13200,7 @@
       <c r="AD358" s="1"/>
       <c r="AE358" s="1"/>
     </row>
-    <row r="359" spans="1:31" ht="15.75" customHeight="1">
+    <row r="359" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -13127,7 +13233,7 @@
       <c r="AD359" s="1"/>
       <c r="AE359" s="1"/>
     </row>
-    <row r="360" spans="1:31" ht="15.75" customHeight="1">
+    <row r="360" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -13160,7 +13266,7 @@
       <c r="AD360" s="1"/>
       <c r="AE360" s="1"/>
     </row>
-    <row r="361" spans="1:31" ht="15.75" customHeight="1">
+    <row r="361" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -13193,7 +13299,7 @@
       <c r="AD361" s="1"/>
       <c r="AE361" s="1"/>
     </row>
-    <row r="362" spans="1:31" ht="15.75" customHeight="1">
+    <row r="362" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -13226,7 +13332,7 @@
       <c r="AD362" s="1"/>
       <c r="AE362" s="1"/>
     </row>
-    <row r="363" spans="1:31" ht="15.75" customHeight="1">
+    <row r="363" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -13259,7 +13365,7 @@
       <c r="AD363" s="1"/>
       <c r="AE363" s="1"/>
     </row>
-    <row r="364" spans="1:31" ht="15.75" customHeight="1">
+    <row r="364" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -13292,7 +13398,7 @@
       <c r="AD364" s="1"/>
       <c r="AE364" s="1"/>
     </row>
-    <row r="365" spans="1:31" ht="15.75" customHeight="1">
+    <row r="365" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13325,7 +13431,7 @@
       <c r="AD365" s="1"/>
       <c r="AE365" s="1"/>
     </row>
-    <row r="366" spans="1:31" ht="15.75" customHeight="1">
+    <row r="366" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13358,7 +13464,7 @@
       <c r="AD366" s="1"/>
       <c r="AE366" s="1"/>
     </row>
-    <row r="367" spans="1:31" ht="15.75" customHeight="1">
+    <row r="367" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13391,7 +13497,7 @@
       <c r="AD367" s="1"/>
       <c r="AE367" s="1"/>
     </row>
-    <row r="368" spans="1:31" ht="15.75" customHeight="1">
+    <row r="368" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13424,7 +13530,7 @@
       <c r="AD368" s="1"/>
       <c r="AE368" s="1"/>
     </row>
-    <row r="369" spans="1:31" ht="15.75" customHeight="1">
+    <row r="369" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13457,7 +13563,7 @@
       <c r="AD369" s="1"/>
       <c r="AE369" s="1"/>
     </row>
-    <row r="370" spans="1:31" ht="15.75" customHeight="1">
+    <row r="370" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13490,7 +13596,7 @@
       <c r="AD370" s="1"/>
       <c r="AE370" s="1"/>
     </row>
-    <row r="371" spans="1:31" ht="15.75" customHeight="1">
+    <row r="371" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13523,7 +13629,7 @@
       <c r="AD371" s="1"/>
       <c r="AE371" s="1"/>
     </row>
-    <row r="372" spans="1:31" ht="15.75" customHeight="1">
+    <row r="372" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13556,7 +13662,7 @@
       <c r="AD372" s="1"/>
       <c r="AE372" s="1"/>
     </row>
-    <row r="373" spans="1:31" ht="15.75" customHeight="1">
+    <row r="373" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13589,7 +13695,7 @@
       <c r="AD373" s="1"/>
       <c r="AE373" s="1"/>
     </row>
-    <row r="374" spans="1:31" ht="15.75" customHeight="1">
+    <row r="374" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13622,7 +13728,7 @@
       <c r="AD374" s="1"/>
       <c r="AE374" s="1"/>
     </row>
-    <row r="375" spans="1:31" ht="15.75" customHeight="1">
+    <row r="375" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13655,7 +13761,7 @@
       <c r="AD375" s="1"/>
       <c r="AE375" s="1"/>
     </row>
-    <row r="376" spans="1:31" ht="15.75" customHeight="1">
+    <row r="376" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13688,7 +13794,7 @@
       <c r="AD376" s="1"/>
       <c r="AE376" s="1"/>
     </row>
-    <row r="377" spans="1:31" ht="15.75" customHeight="1">
+    <row r="377" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13721,7 +13827,7 @@
       <c r="AD377" s="1"/>
       <c r="AE377" s="1"/>
     </row>
-    <row r="378" spans="1:31" ht="15.75" customHeight="1">
+    <row r="378" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -13754,7 +13860,7 @@
       <c r="AD378" s="1"/>
       <c r="AE378" s="1"/>
     </row>
-    <row r="379" spans="1:31" ht="15.75" customHeight="1">
+    <row r="379" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -13787,7 +13893,7 @@
       <c r="AD379" s="1"/>
       <c r="AE379" s="1"/>
     </row>
-    <row r="380" spans="1:31" ht="15.75" customHeight="1">
+    <row r="380" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -13820,7 +13926,7 @@
       <c r="AD380" s="1"/>
       <c r="AE380" s="1"/>
     </row>
-    <row r="381" spans="1:31" ht="15.75" customHeight="1">
+    <row r="381" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -13853,7 +13959,7 @@
       <c r="AD381" s="1"/>
       <c r="AE381" s="1"/>
     </row>
-    <row r="382" spans="1:31" ht="15.75" customHeight="1">
+    <row r="382" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -13886,7 +13992,7 @@
       <c r="AD382" s="1"/>
       <c r="AE382" s="1"/>
     </row>
-    <row r="383" spans="1:31" ht="15.75" customHeight="1">
+    <row r="383" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -13919,7 +14025,7 @@
       <c r="AD383" s="1"/>
       <c r="AE383" s="1"/>
     </row>
-    <row r="384" spans="1:31" ht="15.75" customHeight="1">
+    <row r="384" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -13952,7 +14058,7 @@
       <c r="AD384" s="1"/>
       <c r="AE384" s="1"/>
     </row>
-    <row r="385" spans="1:31" ht="15.75" customHeight="1">
+    <row r="385" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -13985,7 +14091,7 @@
       <c r="AD385" s="1"/>
       <c r="AE385" s="1"/>
     </row>
-    <row r="386" spans="1:31" ht="15.75" customHeight="1">
+    <row r="386" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -14018,7 +14124,7 @@
       <c r="AD386" s="1"/>
       <c r="AE386" s="1"/>
     </row>
-    <row r="387" spans="1:31" ht="15.75" customHeight="1">
+    <row r="387" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -14051,7 +14157,7 @@
       <c r="AD387" s="1"/>
       <c r="AE387" s="1"/>
     </row>
-    <row r="388" spans="1:31" ht="15.75" customHeight="1">
+    <row r="388" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -14084,7 +14190,7 @@
       <c r="AD388" s="1"/>
       <c r="AE388" s="1"/>
     </row>
-    <row r="389" spans="1:31" ht="15.75" customHeight="1">
+    <row r="389" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -14117,7 +14223,7 @@
       <c r="AD389" s="1"/>
       <c r="AE389" s="1"/>
     </row>
-    <row r="390" spans="1:31" ht="15.75" customHeight="1">
+    <row r="390" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -14150,7 +14256,7 @@
       <c r="AD390" s="1"/>
       <c r="AE390" s="1"/>
     </row>
-    <row r="391" spans="1:31" ht="15.75" customHeight="1">
+    <row r="391" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -14183,7 +14289,7 @@
       <c r="AD391" s="1"/>
       <c r="AE391" s="1"/>
     </row>
-    <row r="392" spans="1:31" ht="15.75" customHeight="1">
+    <row r="392" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -14216,7 +14322,7 @@
       <c r="AD392" s="1"/>
       <c r="AE392" s="1"/>
     </row>
-    <row r="393" spans="1:31" ht="15.75" customHeight="1">
+    <row r="393" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -14249,7 +14355,7 @@
       <c r="AD393" s="1"/>
       <c r="AE393" s="1"/>
     </row>
-    <row r="394" spans="1:31" ht="15.75" customHeight="1">
+    <row r="394" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -14282,7 +14388,7 @@
       <c r="AD394" s="1"/>
       <c r="AE394" s="1"/>
     </row>
-    <row r="395" spans="1:31" ht="15.75" customHeight="1">
+    <row r="395" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -14315,7 +14421,7 @@
       <c r="AD395" s="1"/>
       <c r="AE395" s="1"/>
     </row>
-    <row r="396" spans="1:31" ht="15.75" customHeight="1">
+    <row r="396" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -14348,7 +14454,7 @@
       <c r="AD396" s="1"/>
       <c r="AE396" s="1"/>
     </row>
-    <row r="397" spans="1:31" ht="15.75" customHeight="1">
+    <row r="397" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -14381,7 +14487,7 @@
       <c r="AD397" s="1"/>
       <c r="AE397" s="1"/>
     </row>
-    <row r="398" spans="1:31" ht="15.75" customHeight="1">
+    <row r="398" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -14414,7 +14520,7 @@
       <c r="AD398" s="1"/>
       <c r="AE398" s="1"/>
     </row>
-    <row r="399" spans="1:31" ht="15.75" customHeight="1">
+    <row r="399" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -14447,7 +14553,7 @@
       <c r="AD399" s="1"/>
       <c r="AE399" s="1"/>
     </row>
-    <row r="400" spans="1:31" ht="15.75" customHeight="1">
+    <row r="400" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -14480,7 +14586,7 @@
       <c r="AD400" s="1"/>
       <c r="AE400" s="1"/>
     </row>
-    <row r="401" spans="1:31" ht="15.75" customHeight="1">
+    <row r="401" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14513,7 +14619,7 @@
       <c r="AD401" s="1"/>
       <c r="AE401" s="1"/>
     </row>
-    <row r="402" spans="1:31" ht="15.75" customHeight="1">
+    <row r="402" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -14546,7 +14652,7 @@
       <c r="AD402" s="1"/>
       <c r="AE402" s="1"/>
     </row>
-    <row r="403" spans="1:31" ht="15.75" customHeight="1">
+    <row r="403" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -14579,7 +14685,7 @@
       <c r="AD403" s="1"/>
       <c r="AE403" s="1"/>
     </row>
-    <row r="404" spans="1:31" ht="15.75" customHeight="1">
+    <row r="404" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14612,7 +14718,7 @@
       <c r="AD404" s="1"/>
       <c r="AE404" s="1"/>
     </row>
-    <row r="405" spans="1:31" ht="15.75" customHeight="1">
+    <row r="405" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14645,7 +14751,7 @@
       <c r="AD405" s="1"/>
       <c r="AE405" s="1"/>
     </row>
-    <row r="406" spans="1:31" ht="15.75" customHeight="1">
+    <row r="406" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14678,7 +14784,7 @@
       <c r="AD406" s="1"/>
       <c r="AE406" s="1"/>
     </row>
-    <row r="407" spans="1:31" ht="15.75" customHeight="1">
+    <row r="407" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -14711,7 +14817,7 @@
       <c r="AD407" s="1"/>
       <c r="AE407" s="1"/>
     </row>
-    <row r="408" spans="1:31" ht="15.75" customHeight="1">
+    <row r="408" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -14744,7 +14850,7 @@
       <c r="AD408" s="1"/>
       <c r="AE408" s="1"/>
     </row>
-    <row r="409" spans="1:31" ht="15.75" customHeight="1">
+    <row r="409" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -14777,7 +14883,7 @@
       <c r="AD409" s="1"/>
       <c r="AE409" s="1"/>
     </row>
-    <row r="410" spans="1:31" ht="15.75" customHeight="1">
+    <row r="410" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -14810,7 +14916,7 @@
       <c r="AD410" s="1"/>
       <c r="AE410" s="1"/>
     </row>
-    <row r="411" spans="1:31" ht="15.75" customHeight="1">
+    <row r="411" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -14843,7 +14949,7 @@
       <c r="AD411" s="1"/>
       <c r="AE411" s="1"/>
     </row>
-    <row r="412" spans="1:31" ht="15.75" customHeight="1">
+    <row r="412" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -14876,7 +14982,7 @@
       <c r="AD412" s="1"/>
       <c r="AE412" s="1"/>
     </row>
-    <row r="413" spans="1:31" ht="15.75" customHeight="1">
+    <row r="413" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -14909,7 +15015,7 @@
       <c r="AD413" s="1"/>
       <c r="AE413" s="1"/>
     </row>
-    <row r="414" spans="1:31" ht="15.75" customHeight="1">
+    <row r="414" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -14942,7 +15048,7 @@
       <c r="AD414" s="1"/>
       <c r="AE414" s="1"/>
     </row>
-    <row r="415" spans="1:31" ht="15.75" customHeight="1">
+    <row r="415" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -14975,7 +15081,7 @@
       <c r="AD415" s="1"/>
       <c r="AE415" s="1"/>
     </row>
-    <row r="416" spans="1:31" ht="15.75" customHeight="1">
+    <row r="416" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -15008,7 +15114,7 @@
       <c r="AD416" s="1"/>
       <c r="AE416" s="1"/>
     </row>
-    <row r="417" spans="1:31" ht="15.75" customHeight="1">
+    <row r="417" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -15041,7 +15147,7 @@
       <c r="AD417" s="1"/>
       <c r="AE417" s="1"/>
     </row>
-    <row r="418" spans="1:31" ht="15.75" customHeight="1">
+    <row r="418" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -15074,7 +15180,7 @@
       <c r="AD418" s="1"/>
       <c r="AE418" s="1"/>
     </row>
-    <row r="419" spans="1:31" ht="15.75" customHeight="1">
+    <row r="419" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -15107,7 +15213,7 @@
       <c r="AD419" s="1"/>
       <c r="AE419" s="1"/>
     </row>
-    <row r="420" spans="1:31" ht="15.75" customHeight="1">
+    <row r="420" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -15140,7 +15246,7 @@
       <c r="AD420" s="1"/>
       <c r="AE420" s="1"/>
     </row>
-    <row r="421" spans="1:31" ht="15.75" customHeight="1">
+    <row r="421" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -15173,7 +15279,7 @@
       <c r="AD421" s="1"/>
       <c r="AE421" s="1"/>
     </row>
-    <row r="422" spans="1:31" ht="15.75" customHeight="1">
+    <row r="422" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -15206,7 +15312,7 @@
       <c r="AD422" s="1"/>
       <c r="AE422" s="1"/>
     </row>
-    <row r="423" spans="1:31" ht="15.75" customHeight="1">
+    <row r="423" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -15239,7 +15345,7 @@
       <c r="AD423" s="1"/>
       <c r="AE423" s="1"/>
     </row>
-    <row r="424" spans="1:31" ht="15.75" customHeight="1">
+    <row r="424" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -15272,7 +15378,7 @@
       <c r="AD424" s="1"/>
       <c r="AE424" s="1"/>
     </row>
-    <row r="425" spans="1:31" ht="15.75" customHeight="1">
+    <row r="425" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -15305,7 +15411,7 @@
       <c r="AD425" s="1"/>
       <c r="AE425" s="1"/>
     </row>
-    <row r="426" spans="1:31" ht="15.75" customHeight="1">
+    <row r="426" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -15338,7 +15444,7 @@
       <c r="AD426" s="1"/>
       <c r="AE426" s="1"/>
     </row>
-    <row r="427" spans="1:31" ht="15.75" customHeight="1">
+    <row r="427" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -15371,7 +15477,7 @@
       <c r="AD427" s="1"/>
       <c r="AE427" s="1"/>
     </row>
-    <row r="428" spans="1:31" ht="15.75" customHeight="1">
+    <row r="428" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -15404,7 +15510,7 @@
       <c r="AD428" s="1"/>
       <c r="AE428" s="1"/>
     </row>
-    <row r="429" spans="1:31" ht="15.75" customHeight="1">
+    <row r="429" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -15437,7 +15543,7 @@
       <c r="AD429" s="1"/>
       <c r="AE429" s="1"/>
     </row>
-    <row r="430" spans="1:31" ht="15.75" customHeight="1">
+    <row r="430" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -15470,7 +15576,7 @@
       <c r="AD430" s="1"/>
       <c r="AE430" s="1"/>
     </row>
-    <row r="431" spans="1:31" ht="15.75" customHeight="1">
+    <row r="431" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -15503,7 +15609,7 @@
       <c r="AD431" s="1"/>
       <c r="AE431" s="1"/>
     </row>
-    <row r="432" spans="1:31" ht="15.75" customHeight="1">
+    <row r="432" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -15536,7 +15642,7 @@
       <c r="AD432" s="1"/>
       <c r="AE432" s="1"/>
     </row>
-    <row r="433" spans="1:31" ht="15.75" customHeight="1">
+    <row r="433" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -15569,7 +15675,7 @@
       <c r="AD433" s="1"/>
       <c r="AE433" s="1"/>
     </row>
-    <row r="434" spans="1:31" ht="15.75" customHeight="1">
+    <row r="434" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -15602,7 +15708,7 @@
       <c r="AD434" s="1"/>
       <c r="AE434" s="1"/>
     </row>
-    <row r="435" spans="1:31" ht="15.75" customHeight="1">
+    <row r="435" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -15635,7 +15741,7 @@
       <c r="AD435" s="1"/>
       <c r="AE435" s="1"/>
     </row>
-    <row r="436" spans="1:31" ht="15.75" customHeight="1">
+    <row r="436" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -15668,7 +15774,7 @@
       <c r="AD436" s="1"/>
       <c r="AE436" s="1"/>
     </row>
-    <row r="437" spans="1:31" ht="15.75" customHeight="1">
+    <row r="437" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -15701,7 +15807,7 @@
       <c r="AD437" s="1"/>
       <c r="AE437" s="1"/>
     </row>
-    <row r="438" spans="1:31" ht="15.75" customHeight="1">
+    <row r="438" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -15734,7 +15840,7 @@
       <c r="AD438" s="1"/>
       <c r="AE438" s="1"/>
     </row>
-    <row r="439" spans="1:31" ht="15.75" customHeight="1">
+    <row r="439" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -15767,7 +15873,7 @@
       <c r="AD439" s="1"/>
       <c r="AE439" s="1"/>
     </row>
-    <row r="440" spans="1:31" ht="15.75" customHeight="1">
+    <row r="440" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -15800,7 +15906,7 @@
       <c r="AD440" s="1"/>
       <c r="AE440" s="1"/>
     </row>
-    <row r="441" spans="1:31" ht="15.75" customHeight="1">
+    <row r="441" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -15833,7 +15939,7 @@
       <c r="AD441" s="1"/>
       <c r="AE441" s="1"/>
     </row>
-    <row r="442" spans="1:31" ht="15.75" customHeight="1">
+    <row r="442" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -15866,7 +15972,7 @@
       <c r="AD442" s="1"/>
       <c r="AE442" s="1"/>
     </row>
-    <row r="443" spans="1:31" ht="15.75" customHeight="1">
+    <row r="443" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -15899,7 +16005,7 @@
       <c r="AD443" s="1"/>
       <c r="AE443" s="1"/>
     </row>
-    <row r="444" spans="1:31" ht="15.75" customHeight="1">
+    <row r="444" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -15932,7 +16038,7 @@
       <c r="AD444" s="1"/>
       <c r="AE444" s="1"/>
     </row>
-    <row r="445" spans="1:31" ht="15.75" customHeight="1">
+    <row r="445" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -15965,7 +16071,7 @@
       <c r="AD445" s="1"/>
       <c r="AE445" s="1"/>
     </row>
-    <row r="446" spans="1:31" ht="15.75" customHeight="1">
+    <row r="446" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -15998,7 +16104,7 @@
       <c r="AD446" s="1"/>
       <c r="AE446" s="1"/>
     </row>
-    <row r="447" spans="1:31" ht="15.75" customHeight="1">
+    <row r="447" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -16031,7 +16137,7 @@
       <c r="AD447" s="1"/>
       <c r="AE447" s="1"/>
     </row>
-    <row r="448" spans="1:31" ht="15.75" customHeight="1">
+    <row r="448" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -16064,7 +16170,7 @@
       <c r="AD448" s="1"/>
       <c r="AE448" s="1"/>
     </row>
-    <row r="449" spans="1:31" ht="15.75" customHeight="1">
+    <row r="449" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -16097,7 +16203,7 @@
       <c r="AD449" s="1"/>
       <c r="AE449" s="1"/>
     </row>
-    <row r="450" spans="1:31" ht="15.75" customHeight="1">
+    <row r="450" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -16130,7 +16236,7 @@
       <c r="AD450" s="1"/>
       <c r="AE450" s="1"/>
     </row>
-    <row r="451" spans="1:31" ht="15.75" customHeight="1">
+    <row r="451" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -16163,7 +16269,7 @@
       <c r="AD451" s="1"/>
       <c r="AE451" s="1"/>
     </row>
-    <row r="452" spans="1:31" ht="15.75" customHeight="1">
+    <row r="452" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -16196,7 +16302,7 @@
       <c r="AD452" s="1"/>
       <c r="AE452" s="1"/>
     </row>
-    <row r="453" spans="1:31" ht="15.75" customHeight="1">
+    <row r="453" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -16229,7 +16335,7 @@
       <c r="AD453" s="1"/>
       <c r="AE453" s="1"/>
     </row>
-    <row r="454" spans="1:31" ht="15.75" customHeight="1">
+    <row r="454" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -16262,7 +16368,7 @@
       <c r="AD454" s="1"/>
       <c r="AE454" s="1"/>
     </row>
-    <row r="455" spans="1:31" ht="15.75" customHeight="1">
+    <row r="455" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -16295,7 +16401,7 @@
       <c r="AD455" s="1"/>
       <c r="AE455" s="1"/>
     </row>
-    <row r="456" spans="1:31" ht="15.75" customHeight="1">
+    <row r="456" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -16328,7 +16434,7 @@
       <c r="AD456" s="1"/>
       <c r="AE456" s="1"/>
     </row>
-    <row r="457" spans="1:31" ht="15.75" customHeight="1">
+    <row r="457" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -16361,7 +16467,7 @@
       <c r="AD457" s="1"/>
       <c r="AE457" s="1"/>
     </row>
-    <row r="458" spans="1:31" ht="15.75" customHeight="1">
+    <row r="458" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -16394,7 +16500,7 @@
       <c r="AD458" s="1"/>
       <c r="AE458" s="1"/>
     </row>
-    <row r="459" spans="1:31" ht="15.75" customHeight="1">
+    <row r="459" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -16427,7 +16533,7 @@
       <c r="AD459" s="1"/>
       <c r="AE459" s="1"/>
     </row>
-    <row r="460" spans="1:31" ht="15.75" customHeight="1">
+    <row r="460" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -16460,7 +16566,7 @@
       <c r="AD460" s="1"/>
       <c r="AE460" s="1"/>
     </row>
-    <row r="461" spans="1:31" ht="15.75" customHeight="1">
+    <row r="461" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -16493,7 +16599,7 @@
       <c r="AD461" s="1"/>
       <c r="AE461" s="1"/>
     </row>
-    <row r="462" spans="1:31" ht="15.75" customHeight="1">
+    <row r="462" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -16526,7 +16632,7 @@
       <c r="AD462" s="1"/>
       <c r="AE462" s="1"/>
     </row>
-    <row r="463" spans="1:31" ht="15.75" customHeight="1">
+    <row r="463" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -16559,7 +16665,7 @@
       <c r="AD463" s="1"/>
       <c r="AE463" s="1"/>
     </row>
-    <row r="464" spans="1:31" ht="15.75" customHeight="1">
+    <row r="464" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -16592,7 +16698,7 @@
       <c r="AD464" s="1"/>
       <c r="AE464" s="1"/>
     </row>
-    <row r="465" spans="1:31" ht="15.75" customHeight="1">
+    <row r="465" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -16625,7 +16731,7 @@
       <c r="AD465" s="1"/>
       <c r="AE465" s="1"/>
     </row>
-    <row r="466" spans="1:31" ht="15.75" customHeight="1">
+    <row r="466" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -16658,7 +16764,7 @@
       <c r="AD466" s="1"/>
       <c r="AE466" s="1"/>
     </row>
-    <row r="467" spans="1:31" ht="15.75" customHeight="1">
+    <row r="467" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -16691,7 +16797,7 @@
       <c r="AD467" s="1"/>
       <c r="AE467" s="1"/>
     </row>
-    <row r="468" spans="1:31" ht="15.75" customHeight="1">
+    <row r="468" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -16724,7 +16830,7 @@
       <c r="AD468" s="1"/>
       <c r="AE468" s="1"/>
     </row>
-    <row r="469" spans="1:31" ht="15.75" customHeight="1">
+    <row r="469" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -16757,7 +16863,7 @@
       <c r="AD469" s="1"/>
       <c r="AE469" s="1"/>
     </row>
-    <row r="470" spans="1:31" ht="15.75" customHeight="1">
+    <row r="470" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -16790,7 +16896,7 @@
       <c r="AD470" s="1"/>
       <c r="AE470" s="1"/>
     </row>
-    <row r="471" spans="1:31" ht="15.75" customHeight="1">
+    <row r="471" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -16823,7 +16929,7 @@
       <c r="AD471" s="1"/>
       <c r="AE471" s="1"/>
     </row>
-    <row r="472" spans="1:31" ht="15.75" customHeight="1">
+    <row r="472" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -16856,7 +16962,7 @@
       <c r="AD472" s="1"/>
       <c r="AE472" s="1"/>
     </row>
-    <row r="473" spans="1:31" ht="15.75" customHeight="1">
+    <row r="473" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -16889,7 +16995,7 @@
       <c r="AD473" s="1"/>
       <c r="AE473" s="1"/>
     </row>
-    <row r="474" spans="1:31" ht="15.75" customHeight="1">
+    <row r="474" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -16922,7 +17028,7 @@
       <c r="AD474" s="1"/>
       <c r="AE474" s="1"/>
     </row>
-    <row r="475" spans="1:31" ht="15.75" customHeight="1">
+    <row r="475" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -16955,7 +17061,7 @@
       <c r="AD475" s="1"/>
       <c r="AE475" s="1"/>
     </row>
-    <row r="476" spans="1:31" ht="15.75" customHeight="1">
+    <row r="476" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -16988,7 +17094,7 @@
       <c r="AD476" s="1"/>
       <c r="AE476" s="1"/>
     </row>
-    <row r="477" spans="1:31" ht="15.75" customHeight="1">
+    <row r="477" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -17021,7 +17127,7 @@
       <c r="AD477" s="1"/>
       <c r="AE477" s="1"/>
     </row>
-    <row r="478" spans="1:31" ht="15.75" customHeight="1">
+    <row r="478" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -17054,7 +17160,7 @@
       <c r="AD478" s="1"/>
       <c r="AE478" s="1"/>
     </row>
-    <row r="479" spans="1:31" ht="15.75" customHeight="1">
+    <row r="479" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -17087,7 +17193,7 @@
       <c r="AD479" s="1"/>
       <c r="AE479" s="1"/>
     </row>
-    <row r="480" spans="1:31" ht="15.75" customHeight="1">
+    <row r="480" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -17120,7 +17226,7 @@
       <c r="AD480" s="1"/>
       <c r="AE480" s="1"/>
     </row>
-    <row r="481" spans="1:31" ht="15.75" customHeight="1">
+    <row r="481" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -17153,7 +17259,7 @@
       <c r="AD481" s="1"/>
       <c r="AE481" s="1"/>
     </row>
-    <row r="482" spans="1:31" ht="15.75" customHeight="1">
+    <row r="482" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -17186,7 +17292,7 @@
       <c r="AD482" s="1"/>
       <c r="AE482" s="1"/>
     </row>
-    <row r="483" spans="1:31" ht="15.75" customHeight="1">
+    <row r="483" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -17219,7 +17325,7 @@
       <c r="AD483" s="1"/>
       <c r="AE483" s="1"/>
     </row>
-    <row r="484" spans="1:31" ht="15.75" customHeight="1">
+    <row r="484" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -17252,7 +17358,7 @@
       <c r="AD484" s="1"/>
       <c r="AE484" s="1"/>
     </row>
-    <row r="485" spans="1:31" ht="15.75" customHeight="1">
+    <row r="485" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -17285,7 +17391,7 @@
       <c r="AD485" s="1"/>
       <c r="AE485" s="1"/>
     </row>
-    <row r="486" spans="1:31" ht="15.75" customHeight="1">
+    <row r="486" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -17318,7 +17424,7 @@
       <c r="AD486" s="1"/>
       <c r="AE486" s="1"/>
     </row>
-    <row r="487" spans="1:31" ht="15.75" customHeight="1">
+    <row r="487" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -17351,7 +17457,7 @@
       <c r="AD487" s="1"/>
       <c r="AE487" s="1"/>
     </row>
-    <row r="488" spans="1:31" ht="15.75" customHeight="1">
+    <row r="488" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -17384,7 +17490,7 @@
       <c r="AD488" s="1"/>
       <c r="AE488" s="1"/>
     </row>
-    <row r="489" spans="1:31" ht="15.75" customHeight="1">
+    <row r="489" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -17417,7 +17523,7 @@
       <c r="AD489" s="1"/>
       <c r="AE489" s="1"/>
     </row>
-    <row r="490" spans="1:31" ht="15.75" customHeight="1">
+    <row r="490" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -17450,7 +17556,7 @@
       <c r="AD490" s="1"/>
       <c r="AE490" s="1"/>
     </row>
-    <row r="491" spans="1:31" ht="15.75" customHeight="1">
+    <row r="491" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -17483,7 +17589,7 @@
       <c r="AD491" s="1"/>
       <c r="AE491" s="1"/>
     </row>
-    <row r="492" spans="1:31" ht="15.75" customHeight="1">
+    <row r="492" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -17516,7 +17622,7 @@
       <c r="AD492" s="1"/>
       <c r="AE492" s="1"/>
     </row>
-    <row r="493" spans="1:31" ht="15.75" customHeight="1">
+    <row r="493" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -17549,7 +17655,7 @@
       <c r="AD493" s="1"/>
       <c r="AE493" s="1"/>
     </row>
-    <row r="494" spans="1:31" ht="15.75" customHeight="1">
+    <row r="494" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -17582,7 +17688,7 @@
       <c r="AD494" s="1"/>
       <c r="AE494" s="1"/>
     </row>
-    <row r="495" spans="1:31" ht="15.75" customHeight="1">
+    <row r="495" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -17615,7 +17721,7 @@
       <c r="AD495" s="1"/>
       <c r="AE495" s="1"/>
     </row>
-    <row r="496" spans="1:31" ht="15.75" customHeight="1">
+    <row r="496" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -17648,7 +17754,7 @@
       <c r="AD496" s="1"/>
       <c r="AE496" s="1"/>
     </row>
-    <row r="497" spans="1:31" ht="15.75" customHeight="1">
+    <row r="497" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -17681,7 +17787,7 @@
       <c r="AD497" s="1"/>
       <c r="AE497" s="1"/>
     </row>
-    <row r="498" spans="1:31" ht="15.75" customHeight="1">
+    <row r="498" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -17714,7 +17820,7 @@
       <c r="AD498" s="1"/>
       <c r="AE498" s="1"/>
     </row>
-    <row r="499" spans="1:31" ht="15.75" customHeight="1">
+    <row r="499" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -17747,7 +17853,7 @@
       <c r="AD499" s="1"/>
       <c r="AE499" s="1"/>
     </row>
-    <row r="500" spans="1:31" ht="15.75" customHeight="1">
+    <row r="500" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -17780,7 +17886,7 @@
       <c r="AD500" s="1"/>
       <c r="AE500" s="1"/>
     </row>
-    <row r="501" spans="1:31" ht="15.75" customHeight="1">
+    <row r="501" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -17813,7 +17919,7 @@
       <c r="AD501" s="1"/>
       <c r="AE501" s="1"/>
     </row>
-    <row r="502" spans="1:31" ht="15.75" customHeight="1">
+    <row r="502" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -17846,7 +17952,7 @@
       <c r="AD502" s="1"/>
       <c r="AE502" s="1"/>
     </row>
-    <row r="503" spans="1:31" ht="15.75" customHeight="1">
+    <row r="503" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -17879,7 +17985,7 @@
       <c r="AD503" s="1"/>
       <c r="AE503" s="1"/>
     </row>
-    <row r="504" spans="1:31" ht="15.75" customHeight="1">
+    <row r="504" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -17912,7 +18018,7 @@
       <c r="AD504" s="1"/>
       <c r="AE504" s="1"/>
     </row>
-    <row r="505" spans="1:31" ht="15.75" customHeight="1">
+    <row r="505" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -17945,7 +18051,7 @@
       <c r="AD505" s="1"/>
       <c r="AE505" s="1"/>
     </row>
-    <row r="506" spans="1:31" ht="15.75" customHeight="1">
+    <row r="506" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -17978,7 +18084,7 @@
       <c r="AD506" s="1"/>
       <c r="AE506" s="1"/>
     </row>
-    <row r="507" spans="1:31" ht="15.75" customHeight="1">
+    <row r="507" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -18011,7 +18117,7 @@
       <c r="AD507" s="1"/>
       <c r="AE507" s="1"/>
     </row>
-    <row r="508" spans="1:31" ht="15.75" customHeight="1">
+    <row r="508" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -18044,7 +18150,7 @@
       <c r="AD508" s="1"/>
       <c r="AE508" s="1"/>
     </row>
-    <row r="509" spans="1:31" ht="15.75" customHeight="1">
+    <row r="509" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -18077,7 +18183,7 @@
       <c r="AD509" s="1"/>
       <c r="AE509" s="1"/>
     </row>
-    <row r="510" spans="1:31" ht="15.75" customHeight="1">
+    <row r="510" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -18110,7 +18216,7 @@
       <c r="AD510" s="1"/>
       <c r="AE510" s="1"/>
     </row>
-    <row r="511" spans="1:31" ht="15.75" customHeight="1">
+    <row r="511" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -18143,7 +18249,7 @@
       <c r="AD511" s="1"/>
       <c r="AE511" s="1"/>
     </row>
-    <row r="512" spans="1:31" ht="15.75" customHeight="1">
+    <row r="512" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -18176,7 +18282,7 @@
       <c r="AD512" s="1"/>
       <c r="AE512" s="1"/>
     </row>
-    <row r="513" spans="1:31" ht="15.75" customHeight="1">
+    <row r="513" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -18209,7 +18315,7 @@
       <c r="AD513" s="1"/>
       <c r="AE513" s="1"/>
     </row>
-    <row r="514" spans="1:31" ht="15.75" customHeight="1">
+    <row r="514" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -18242,7 +18348,7 @@
       <c r="AD514" s="1"/>
       <c r="AE514" s="1"/>
     </row>
-    <row r="515" spans="1:31" ht="15.75" customHeight="1">
+    <row r="515" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -18275,7 +18381,7 @@
       <c r="AD515" s="1"/>
       <c r="AE515" s="1"/>
     </row>
-    <row r="516" spans="1:31" ht="15.75" customHeight="1">
+    <row r="516" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -18308,7 +18414,7 @@
       <c r="AD516" s="1"/>
       <c r="AE516" s="1"/>
     </row>
-    <row r="517" spans="1:31" ht="15.75" customHeight="1">
+    <row r="517" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -18341,7 +18447,7 @@
       <c r="AD517" s="1"/>
       <c r="AE517" s="1"/>
     </row>
-    <row r="518" spans="1:31" ht="15.75" customHeight="1">
+    <row r="518" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -18374,7 +18480,7 @@
       <c r="AD518" s="1"/>
       <c r="AE518" s="1"/>
     </row>
-    <row r="519" spans="1:31" ht="15.75" customHeight="1">
+    <row r="519" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -18407,7 +18513,7 @@
       <c r="AD519" s="1"/>
       <c r="AE519" s="1"/>
     </row>
-    <row r="520" spans="1:31" ht="15.75" customHeight="1">
+    <row r="520" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -18440,7 +18546,7 @@
       <c r="AD520" s="1"/>
       <c r="AE520" s="1"/>
     </row>
-    <row r="521" spans="1:31" ht="15.75" customHeight="1">
+    <row r="521" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -18473,7 +18579,7 @@
       <c r="AD521" s="1"/>
       <c r="AE521" s="1"/>
     </row>
-    <row r="522" spans="1:31" ht="15.75" customHeight="1">
+    <row r="522" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -18506,7 +18612,7 @@
       <c r="AD522" s="1"/>
       <c r="AE522" s="1"/>
     </row>
-    <row r="523" spans="1:31" ht="15.75" customHeight="1">
+    <row r="523" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -18539,7 +18645,7 @@
       <c r="AD523" s="1"/>
       <c r="AE523" s="1"/>
     </row>
-    <row r="524" spans="1:31" ht="15.75" customHeight="1">
+    <row r="524" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -18572,7 +18678,7 @@
       <c r="AD524" s="1"/>
       <c r="AE524" s="1"/>
     </row>
-    <row r="525" spans="1:31" ht="15.75" customHeight="1">
+    <row r="525" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -18605,7 +18711,7 @@
       <c r="AD525" s="1"/>
       <c r="AE525" s="1"/>
     </row>
-    <row r="526" spans="1:31" ht="15.75" customHeight="1">
+    <row r="526" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -18638,7 +18744,7 @@
       <c r="AD526" s="1"/>
       <c r="AE526" s="1"/>
     </row>
-    <row r="527" spans="1:31" ht="15.75" customHeight="1">
+    <row r="527" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -18671,7 +18777,7 @@
       <c r="AD527" s="1"/>
       <c r="AE527" s="1"/>
     </row>
-    <row r="528" spans="1:31" ht="15.75" customHeight="1">
+    <row r="528" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -18704,7 +18810,7 @@
       <c r="AD528" s="1"/>
       <c r="AE528" s="1"/>
     </row>
-    <row r="529" spans="1:31" ht="15.75" customHeight="1">
+    <row r="529" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -18737,7 +18843,7 @@
       <c r="AD529" s="1"/>
       <c r="AE529" s="1"/>
     </row>
-    <row r="530" spans="1:31" ht="15.75" customHeight="1">
+    <row r="530" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -18770,7 +18876,7 @@
       <c r="AD530" s="1"/>
       <c r="AE530" s="1"/>
     </row>
-    <row r="531" spans="1:31" ht="15.75" customHeight="1">
+    <row r="531" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -18803,7 +18909,7 @@
       <c r="AD531" s="1"/>
       <c r="AE531" s="1"/>
     </row>
-    <row r="532" spans="1:31" ht="15.75" customHeight="1">
+    <row r="532" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -18836,7 +18942,7 @@
       <c r="AD532" s="1"/>
       <c r="AE532" s="1"/>
     </row>
-    <row r="533" spans="1:31" ht="15.75" customHeight="1">
+    <row r="533" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -18869,7 +18975,7 @@
       <c r="AD533" s="1"/>
       <c r="AE533" s="1"/>
     </row>
-    <row r="534" spans="1:31" ht="15.75" customHeight="1">
+    <row r="534" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -18902,7 +19008,7 @@
       <c r="AD534" s="1"/>
       <c r="AE534" s="1"/>
     </row>
-    <row r="535" spans="1:31" ht="15.75" customHeight="1">
+    <row r="535" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -18935,7 +19041,7 @@
       <c r="AD535" s="1"/>
       <c r="AE535" s="1"/>
     </row>
-    <row r="536" spans="1:31" ht="15.75" customHeight="1">
+    <row r="536" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -18968,7 +19074,7 @@
       <c r="AD536" s="1"/>
       <c r="AE536" s="1"/>
     </row>
-    <row r="537" spans="1:31" ht="15.75" customHeight="1">
+    <row r="537" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -19001,7 +19107,7 @@
       <c r="AD537" s="1"/>
       <c r="AE537" s="1"/>
     </row>
-    <row r="538" spans="1:31" ht="15.75" customHeight="1">
+    <row r="538" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -19034,7 +19140,7 @@
       <c r="AD538" s="1"/>
       <c r="AE538" s="1"/>
     </row>
-    <row r="539" spans="1:31" ht="15.75" customHeight="1">
+    <row r="539" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -19067,7 +19173,7 @@
       <c r="AD539" s="1"/>
       <c r="AE539" s="1"/>
     </row>
-    <row r="540" spans="1:31" ht="15.75" customHeight="1">
+    <row r="540" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -19100,7 +19206,7 @@
       <c r="AD540" s="1"/>
       <c r="AE540" s="1"/>
     </row>
-    <row r="541" spans="1:31" ht="15.75" customHeight="1">
+    <row r="541" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -19133,7 +19239,7 @@
       <c r="AD541" s="1"/>
       <c r="AE541" s="1"/>
     </row>
-    <row r="542" spans="1:31" ht="15.75" customHeight="1">
+    <row r="542" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -19166,7 +19272,7 @@
       <c r="AD542" s="1"/>
       <c r="AE542" s="1"/>
     </row>
-    <row r="543" spans="1:31" ht="15.75" customHeight="1">
+    <row r="543" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -19199,7 +19305,7 @@
       <c r="AD543" s="1"/>
       <c r="AE543" s="1"/>
     </row>
-    <row r="544" spans="1:31" ht="15.75" customHeight="1">
+    <row r="544" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -19232,7 +19338,7 @@
       <c r="AD544" s="1"/>
       <c r="AE544" s="1"/>
     </row>
-    <row r="545" spans="1:31" ht="15.75" customHeight="1">
+    <row r="545" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -19265,7 +19371,7 @@
       <c r="AD545" s="1"/>
       <c r="AE545" s="1"/>
     </row>
-    <row r="546" spans="1:31" ht="15.75" customHeight="1">
+    <row r="546" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -19298,7 +19404,7 @@
       <c r="AD546" s="1"/>
       <c r="AE546" s="1"/>
     </row>
-    <row r="547" spans="1:31" ht="15.75" customHeight="1">
+    <row r="547" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -19331,7 +19437,7 @@
       <c r="AD547" s="1"/>
       <c r="AE547" s="1"/>
     </row>
-    <row r="548" spans="1:31" ht="15.75" customHeight="1">
+    <row r="548" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -19364,7 +19470,7 @@
       <c r="AD548" s="1"/>
       <c r="AE548" s="1"/>
     </row>
-    <row r="549" spans="1:31" ht="15.75" customHeight="1">
+    <row r="549" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -19397,7 +19503,7 @@
       <c r="AD549" s="1"/>
       <c r="AE549" s="1"/>
     </row>
-    <row r="550" spans="1:31" ht="15.75" customHeight="1">
+    <row r="550" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -19430,7 +19536,7 @@
       <c r="AD550" s="1"/>
       <c r="AE550" s="1"/>
     </row>
-    <row r="551" spans="1:31" ht="15.75" customHeight="1">
+    <row r="551" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -19463,7 +19569,7 @@
       <c r="AD551" s="1"/>
       <c r="AE551" s="1"/>
     </row>
-    <row r="552" spans="1:31" ht="15.75" customHeight="1">
+    <row r="552" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -19496,7 +19602,7 @@
       <c r="AD552" s="1"/>
       <c r="AE552" s="1"/>
     </row>
-    <row r="553" spans="1:31" ht="15.75" customHeight="1">
+    <row r="553" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -19529,7 +19635,7 @@
       <c r="AD553" s="1"/>
       <c r="AE553" s="1"/>
     </row>
-    <row r="554" spans="1:31" ht="15.75" customHeight="1">
+    <row r="554" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -19562,7 +19668,7 @@
       <c r="AD554" s="1"/>
       <c r="AE554" s="1"/>
     </row>
-    <row r="555" spans="1:31" ht="15.75" customHeight="1">
+    <row r="555" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -19595,7 +19701,7 @@
       <c r="AD555" s="1"/>
       <c r="AE555" s="1"/>
     </row>
-    <row r="556" spans="1:31" ht="15.75" customHeight="1">
+    <row r="556" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -19628,7 +19734,7 @@
       <c r="AD556" s="1"/>
       <c r="AE556" s="1"/>
     </row>
-    <row r="557" spans="1:31" ht="15.75" customHeight="1">
+    <row r="557" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -19661,7 +19767,7 @@
       <c r="AD557" s="1"/>
       <c r="AE557" s="1"/>
     </row>
-    <row r="558" spans="1:31" ht="15.75" customHeight="1">
+    <row r="558" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -19694,7 +19800,7 @@
       <c r="AD558" s="1"/>
       <c r="AE558" s="1"/>
     </row>
-    <row r="559" spans="1:31" ht="15.75" customHeight="1">
+    <row r="559" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -19727,7 +19833,7 @@
       <c r="AD559" s="1"/>
       <c r="AE559" s="1"/>
     </row>
-    <row r="560" spans="1:31" ht="15.75" customHeight="1">
+    <row r="560" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -19760,7 +19866,7 @@
       <c r="AD560" s="1"/>
       <c r="AE560" s="1"/>
     </row>
-    <row r="561" spans="1:31" ht="15.75" customHeight="1">
+    <row r="561" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -19793,7 +19899,7 @@
       <c r="AD561" s="1"/>
       <c r="AE561" s="1"/>
     </row>
-    <row r="562" spans="1:31" ht="15.75" customHeight="1">
+    <row r="562" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -19826,7 +19932,7 @@
       <c r="AD562" s="1"/>
       <c r="AE562" s="1"/>
     </row>
-    <row r="563" spans="1:31" ht="15.75" customHeight="1">
+    <row r="563" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -19859,7 +19965,7 @@
       <c r="AD563" s="1"/>
       <c r="AE563" s="1"/>
     </row>
-    <row r="564" spans="1:31" ht="15.75" customHeight="1">
+    <row r="564" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -19892,7 +19998,7 @@
       <c r="AD564" s="1"/>
       <c r="AE564" s="1"/>
     </row>
-    <row r="565" spans="1:31" ht="15.75" customHeight="1">
+    <row r="565" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -19925,7 +20031,7 @@
       <c r="AD565" s="1"/>
       <c r="AE565" s="1"/>
     </row>
-    <row r="566" spans="1:31" ht="15.75" customHeight="1">
+    <row r="566" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -19958,7 +20064,7 @@
       <c r="AD566" s="1"/>
       <c r="AE566" s="1"/>
     </row>
-    <row r="567" spans="1:31" ht="15.75" customHeight="1">
+    <row r="567" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -19991,7 +20097,7 @@
       <c r="AD567" s="1"/>
       <c r="AE567" s="1"/>
     </row>
-    <row r="568" spans="1:31" ht="15.75" customHeight="1">
+    <row r="568" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -20024,7 +20130,7 @@
       <c r="AD568" s="1"/>
       <c r="AE568" s="1"/>
     </row>
-    <row r="569" spans="1:31" ht="15.75" customHeight="1">
+    <row r="569" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -20057,7 +20163,7 @@
       <c r="AD569" s="1"/>
       <c r="AE569" s="1"/>
     </row>
-    <row r="570" spans="1:31" ht="15.75" customHeight="1">
+    <row r="570" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -20090,7 +20196,7 @@
       <c r="AD570" s="1"/>
       <c r="AE570" s="1"/>
     </row>
-    <row r="571" spans="1:31" ht="15.75" customHeight="1">
+    <row r="571" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -20123,7 +20229,7 @@
       <c r="AD571" s="1"/>
       <c r="AE571" s="1"/>
     </row>
-    <row r="572" spans="1:31" ht="15.75" customHeight="1">
+    <row r="572" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -20156,7 +20262,7 @@
       <c r="AD572" s="1"/>
       <c r="AE572" s="1"/>
     </row>
-    <row r="573" spans="1:31" ht="15.75" customHeight="1">
+    <row r="573" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -20189,7 +20295,7 @@
       <c r="AD573" s="1"/>
       <c r="AE573" s="1"/>
     </row>
-    <row r="574" spans="1:31" ht="15.75" customHeight="1">
+    <row r="574" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -20222,7 +20328,7 @@
       <c r="AD574" s="1"/>
       <c r="AE574" s="1"/>
     </row>
-    <row r="575" spans="1:31" ht="15.75" customHeight="1">
+    <row r="575" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -20255,7 +20361,7 @@
       <c r="AD575" s="1"/>
       <c r="AE575" s="1"/>
     </row>
-    <row r="576" spans="1:31" ht="15.75" customHeight="1">
+    <row r="576" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -20288,7 +20394,7 @@
       <c r="AD576" s="1"/>
       <c r="AE576" s="1"/>
     </row>
-    <row r="577" spans="1:31" ht="15.75" customHeight="1">
+    <row r="577" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -20321,7 +20427,7 @@
       <c r="AD577" s="1"/>
       <c r="AE577" s="1"/>
     </row>
-    <row r="578" spans="1:31" ht="15.75" customHeight="1">
+    <row r="578" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -20354,7 +20460,7 @@
       <c r="AD578" s="1"/>
       <c r="AE578" s="1"/>
     </row>
-    <row r="579" spans="1:31" ht="15.75" customHeight="1">
+    <row r="579" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -20387,7 +20493,7 @@
       <c r="AD579" s="1"/>
       <c r="AE579" s="1"/>
     </row>
-    <row r="580" spans="1:31" ht="15.75" customHeight="1">
+    <row r="580" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -20420,7 +20526,7 @@
       <c r="AD580" s="1"/>
       <c r="AE580" s="1"/>
     </row>
-    <row r="581" spans="1:31" ht="15.75" customHeight="1">
+    <row r="581" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -20453,7 +20559,7 @@
       <c r="AD581" s="1"/>
       <c r="AE581" s="1"/>
     </row>
-    <row r="582" spans="1:31" ht="15.75" customHeight="1">
+    <row r="582" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -20486,7 +20592,7 @@
       <c r="AD582" s="1"/>
       <c r="AE582" s="1"/>
     </row>
-    <row r="583" spans="1:31" ht="15.75" customHeight="1">
+    <row r="583" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -20519,7 +20625,7 @@
       <c r="AD583" s="1"/>
       <c r="AE583" s="1"/>
     </row>
-    <row r="584" spans="1:31" ht="15.75" customHeight="1">
+    <row r="584" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -20552,7 +20658,7 @@
       <c r="AD584" s="1"/>
       <c r="AE584" s="1"/>
     </row>
-    <row r="585" spans="1:31" ht="15.75" customHeight="1">
+    <row r="585" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -20585,7 +20691,7 @@
       <c r="AD585" s="1"/>
       <c r="AE585" s="1"/>
     </row>
-    <row r="586" spans="1:31" ht="15.75" customHeight="1">
+    <row r="586" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -20618,7 +20724,7 @@
       <c r="AD586" s="1"/>
       <c r="AE586" s="1"/>
     </row>
-    <row r="587" spans="1:31" ht="15.75" customHeight="1">
+    <row r="587" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -20651,7 +20757,7 @@
       <c r="AD587" s="1"/>
       <c r="AE587" s="1"/>
     </row>
-    <row r="588" spans="1:31" ht="15.75" customHeight="1">
+    <row r="588" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -20684,7 +20790,7 @@
       <c r="AD588" s="1"/>
       <c r="AE588" s="1"/>
     </row>
-    <row r="589" spans="1:31" ht="15.75" customHeight="1">
+    <row r="589" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -20717,7 +20823,7 @@
       <c r="AD589" s="1"/>
       <c r="AE589" s="1"/>
     </row>
-    <row r="590" spans="1:31" ht="15.75" customHeight="1">
+    <row r="590" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -20750,7 +20856,7 @@
       <c r="AD590" s="1"/>
       <c r="AE590" s="1"/>
     </row>
-    <row r="591" spans="1:31" ht="15.75" customHeight="1">
+    <row r="591" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -20783,7 +20889,7 @@
       <c r="AD591" s="1"/>
       <c r="AE591" s="1"/>
     </row>
-    <row r="592" spans="1:31" ht="15.75" customHeight="1">
+    <row r="592" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -20816,7 +20922,7 @@
       <c r="AD592" s="1"/>
       <c r="AE592" s="1"/>
     </row>
-    <row r="593" spans="1:31" ht="15.75" customHeight="1">
+    <row r="593" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -20849,7 +20955,7 @@
       <c r="AD593" s="1"/>
       <c r="AE593" s="1"/>
     </row>
-    <row r="594" spans="1:31" ht="15.75" customHeight="1">
+    <row r="594" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -20882,7 +20988,7 @@
       <c r="AD594" s="1"/>
       <c r="AE594" s="1"/>
     </row>
-    <row r="595" spans="1:31" ht="15.75" customHeight="1">
+    <row r="595" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -20915,7 +21021,7 @@
       <c r="AD595" s="1"/>
       <c r="AE595" s="1"/>
     </row>
-    <row r="596" spans="1:31" ht="15.75" customHeight="1">
+    <row r="596" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -20948,7 +21054,7 @@
       <c r="AD596" s="1"/>
       <c r="AE596" s="1"/>
     </row>
-    <row r="597" spans="1:31" ht="15.75" customHeight="1">
+    <row r="597" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -20981,7 +21087,7 @@
       <c r="AD597" s="1"/>
       <c r="AE597" s="1"/>
     </row>
-    <row r="598" spans="1:31" ht="15.75" customHeight="1">
+    <row r="598" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -21014,7 +21120,7 @@
       <c r="AD598" s="1"/>
       <c r="AE598" s="1"/>
     </row>
-    <row r="599" spans="1:31" ht="15.75" customHeight="1">
+    <row r="599" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -21047,7 +21153,7 @@
       <c r="AD599" s="1"/>
       <c r="AE599" s="1"/>
     </row>
-    <row r="600" spans="1:31" ht="15.75" customHeight="1">
+    <row r="600" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -21080,7 +21186,7 @@
       <c r="AD600" s="1"/>
       <c r="AE600" s="1"/>
     </row>
-    <row r="601" spans="1:31" ht="15.75" customHeight="1">
+    <row r="601" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -21113,7 +21219,7 @@
       <c r="AD601" s="1"/>
       <c r="AE601" s="1"/>
     </row>
-    <row r="602" spans="1:31" ht="15.75" customHeight="1">
+    <row r="602" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -21146,7 +21252,7 @@
       <c r="AD602" s="1"/>
       <c r="AE602" s="1"/>
     </row>
-    <row r="603" spans="1:31" ht="15.75" customHeight="1">
+    <row r="603" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -21179,7 +21285,7 @@
       <c r="AD603" s="1"/>
       <c r="AE603" s="1"/>
     </row>
-    <row r="604" spans="1:31" ht="15.75" customHeight="1">
+    <row r="604" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -21212,7 +21318,7 @@
       <c r="AD604" s="1"/>
       <c r="AE604" s="1"/>
     </row>
-    <row r="605" spans="1:31" ht="15.75" customHeight="1">
+    <row r="605" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -21245,7 +21351,7 @@
       <c r="AD605" s="1"/>
       <c r="AE605" s="1"/>
     </row>
-    <row r="606" spans="1:31" ht="15.75" customHeight="1">
+    <row r="606" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -21278,7 +21384,7 @@
       <c r="AD606" s="1"/>
       <c r="AE606" s="1"/>
     </row>
-    <row r="607" spans="1:31" ht="15.75" customHeight="1">
+    <row r="607" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -21311,7 +21417,7 @@
       <c r="AD607" s="1"/>
       <c r="AE607" s="1"/>
     </row>
-    <row r="608" spans="1:31" ht="15.75" customHeight="1">
+    <row r="608" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -21344,7 +21450,7 @@
       <c r="AD608" s="1"/>
       <c r="AE608" s="1"/>
     </row>
-    <row r="609" spans="1:31" ht="15.75" customHeight="1">
+    <row r="609" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -21377,7 +21483,7 @@
       <c r="AD609" s="1"/>
       <c r="AE609" s="1"/>
     </row>
-    <row r="610" spans="1:31" ht="15.75" customHeight="1">
+    <row r="610" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -21410,7 +21516,7 @@
       <c r="AD610" s="1"/>
       <c r="AE610" s="1"/>
     </row>
-    <row r="611" spans="1:31" ht="15.75" customHeight="1">
+    <row r="611" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -21443,7 +21549,7 @@
       <c r="AD611" s="1"/>
       <c r="AE611" s="1"/>
     </row>
-    <row r="612" spans="1:31" ht="15.75" customHeight="1">
+    <row r="612" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -21476,7 +21582,7 @@
       <c r="AD612" s="1"/>
       <c r="AE612" s="1"/>
     </row>
-    <row r="613" spans="1:31" ht="15.75" customHeight="1">
+    <row r="613" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -21509,7 +21615,7 @@
       <c r="AD613" s="1"/>
       <c r="AE613" s="1"/>
     </row>
-    <row r="614" spans="1:31" ht="15.75" customHeight="1">
+    <row r="614" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -21542,7 +21648,7 @@
       <c r="AD614" s="1"/>
       <c r="AE614" s="1"/>
     </row>
-    <row r="615" spans="1:31" ht="15.75" customHeight="1">
+    <row r="615" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -21575,7 +21681,7 @@
       <c r="AD615" s="1"/>
       <c r="AE615" s="1"/>
     </row>
-    <row r="616" spans="1:31" ht="15.75" customHeight="1">
+    <row r="616" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -21608,7 +21714,7 @@
       <c r="AD616" s="1"/>
       <c r="AE616" s="1"/>
     </row>
-    <row r="617" spans="1:31" ht="15.75" customHeight="1">
+    <row r="617" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -21641,7 +21747,7 @@
       <c r="AD617" s="1"/>
       <c r="AE617" s="1"/>
     </row>
-    <row r="618" spans="1:31" ht="15.75" customHeight="1">
+    <row r="618" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -21674,7 +21780,7 @@
       <c r="AD618" s="1"/>
       <c r="AE618" s="1"/>
     </row>
-    <row r="619" spans="1:31" ht="15.75" customHeight="1">
+    <row r="619" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -21707,7 +21813,7 @@
       <c r="AD619" s="1"/>
       <c r="AE619" s="1"/>
     </row>
-    <row r="620" spans="1:31" ht="15.75" customHeight="1">
+    <row r="620" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -21740,7 +21846,7 @@
       <c r="AD620" s="1"/>
       <c r="AE620" s="1"/>
     </row>
-    <row r="621" spans="1:31" ht="15.75" customHeight="1">
+    <row r="621" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -21773,7 +21879,7 @@
       <c r="AD621" s="1"/>
       <c r="AE621" s="1"/>
     </row>
-    <row r="622" spans="1:31" ht="15.75" customHeight="1">
+    <row r="622" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -21806,7 +21912,7 @@
       <c r="AD622" s="1"/>
       <c r="AE622" s="1"/>
     </row>
-    <row r="623" spans="1:31" ht="15.75" customHeight="1">
+    <row r="623" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -21839,7 +21945,7 @@
       <c r="AD623" s="1"/>
       <c r="AE623" s="1"/>
     </row>
-    <row r="624" spans="1:31" ht="15.75" customHeight="1">
+    <row r="624" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -21872,7 +21978,7 @@
       <c r="AD624" s="1"/>
       <c r="AE624" s="1"/>
     </row>
-    <row r="625" spans="1:31" ht="15.75" customHeight="1">
+    <row r="625" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -21905,7 +22011,7 @@
       <c r="AD625" s="1"/>
       <c r="AE625" s="1"/>
     </row>
-    <row r="626" spans="1:31" ht="15.75" customHeight="1">
+    <row r="626" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -21938,7 +22044,7 @@
       <c r="AD626" s="1"/>
       <c r="AE626" s="1"/>
     </row>
-    <row r="627" spans="1:31" ht="15.75" customHeight="1">
+    <row r="627" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -21971,7 +22077,7 @@
       <c r="AD627" s="1"/>
       <c r="AE627" s="1"/>
     </row>
-    <row r="628" spans="1:31" ht="15.75" customHeight="1">
+    <row r="628" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -22004,7 +22110,7 @@
       <c r="AD628" s="1"/>
       <c r="AE628" s="1"/>
     </row>
-    <row r="629" spans="1:31" ht="15.75" customHeight="1">
+    <row r="629" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -22037,7 +22143,7 @@
       <c r="AD629" s="1"/>
       <c r="AE629" s="1"/>
     </row>
-    <row r="630" spans="1:31" ht="15.75" customHeight="1">
+    <row r="630" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -22070,7 +22176,7 @@
       <c r="AD630" s="1"/>
       <c r="AE630" s="1"/>
     </row>
-    <row r="631" spans="1:31" ht="15.75" customHeight="1">
+    <row r="631" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -22103,7 +22209,7 @@
       <c r="AD631" s="1"/>
       <c r="AE631" s="1"/>
     </row>
-    <row r="632" spans="1:31" ht="15.75" customHeight="1">
+    <row r="632" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -22136,7 +22242,7 @@
       <c r="AD632" s="1"/>
       <c r="AE632" s="1"/>
     </row>
-    <row r="633" spans="1:31" ht="15.75" customHeight="1">
+    <row r="633" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -22169,7 +22275,7 @@
       <c r="AD633" s="1"/>
       <c r="AE633" s="1"/>
     </row>
-    <row r="634" spans="1:31" ht="15.75" customHeight="1">
+    <row r="634" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -22202,7 +22308,7 @@
       <c r="AD634" s="1"/>
       <c r="AE634" s="1"/>
     </row>
-    <row r="635" spans="1:31" ht="15.75" customHeight="1">
+    <row r="635" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -22235,7 +22341,7 @@
       <c r="AD635" s="1"/>
       <c r="AE635" s="1"/>
     </row>
-    <row r="636" spans="1:31" ht="15.75" customHeight="1">
+    <row r="636" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -22268,7 +22374,7 @@
       <c r="AD636" s="1"/>
       <c r="AE636" s="1"/>
     </row>
-    <row r="637" spans="1:31" ht="15.75" customHeight="1">
+    <row r="637" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -22301,7 +22407,7 @@
       <c r="AD637" s="1"/>
       <c r="AE637" s="1"/>
     </row>
-    <row r="638" spans="1:31" ht="15.75" customHeight="1">
+    <row r="638" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -22334,7 +22440,7 @@
       <c r="AD638" s="1"/>
       <c r="AE638" s="1"/>
     </row>
-    <row r="639" spans="1:31" ht="15.75" customHeight="1">
+    <row r="639" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -22367,7 +22473,7 @@
       <c r="AD639" s="1"/>
       <c r="AE639" s="1"/>
     </row>
-    <row r="640" spans="1:31" ht="15.75" customHeight="1">
+    <row r="640" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -22400,7 +22506,7 @@
       <c r="AD640" s="1"/>
       <c r="AE640" s="1"/>
     </row>
-    <row r="641" spans="1:31" ht="15.75" customHeight="1">
+    <row r="641" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -22433,7 +22539,7 @@
       <c r="AD641" s="1"/>
       <c r="AE641" s="1"/>
     </row>
-    <row r="642" spans="1:31" ht="15.75" customHeight="1">
+    <row r="642" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -22466,7 +22572,7 @@
       <c r="AD642" s="1"/>
       <c r="AE642" s="1"/>
     </row>
-    <row r="643" spans="1:31" ht="15.75" customHeight="1">
+    <row r="643" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -22499,7 +22605,7 @@
       <c r="AD643" s="1"/>
       <c r="AE643" s="1"/>
     </row>
-    <row r="644" spans="1:31" ht="15.75" customHeight="1">
+    <row r="644" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -22532,7 +22638,7 @@
       <c r="AD644" s="1"/>
       <c r="AE644" s="1"/>
     </row>
-    <row r="645" spans="1:31" ht="15.75" customHeight="1">
+    <row r="645" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -22565,7 +22671,7 @@
       <c r="AD645" s="1"/>
       <c r="AE645" s="1"/>
     </row>
-    <row r="646" spans="1:31" ht="15.75" customHeight="1">
+    <row r="646" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -22598,7 +22704,7 @@
       <c r="AD646" s="1"/>
       <c r="AE646" s="1"/>
     </row>
-    <row r="647" spans="1:31" ht="15.75" customHeight="1">
+    <row r="647" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -22631,7 +22737,7 @@
       <c r="AD647" s="1"/>
       <c r="AE647" s="1"/>
     </row>
-    <row r="648" spans="1:31" ht="15.75" customHeight="1">
+    <row r="648" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -22664,7 +22770,7 @@
       <c r="AD648" s="1"/>
       <c r="AE648" s="1"/>
     </row>
-    <row r="649" spans="1:31" ht="15.75" customHeight="1">
+    <row r="649" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -22697,7 +22803,7 @@
       <c r="AD649" s="1"/>
       <c r="AE649" s="1"/>
     </row>
-    <row r="650" spans="1:31" ht="15.75" customHeight="1">
+    <row r="650" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -22730,7 +22836,7 @@
       <c r="AD650" s="1"/>
       <c r="AE650" s="1"/>
     </row>
-    <row r="651" spans="1:31" ht="15.75" customHeight="1">
+    <row r="651" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -22763,7 +22869,7 @@
       <c r="AD651" s="1"/>
       <c r="AE651" s="1"/>
     </row>
-    <row r="652" spans="1:31" ht="15.75" customHeight="1">
+    <row r="652" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -22796,7 +22902,7 @@
       <c r="AD652" s="1"/>
       <c r="AE652" s="1"/>
     </row>
-    <row r="653" spans="1:31" ht="15.75" customHeight="1">
+    <row r="653" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -22829,7 +22935,7 @@
       <c r="AD653" s="1"/>
       <c r="AE653" s="1"/>
     </row>
-    <row r="654" spans="1:31" ht="15.75" customHeight="1">
+    <row r="654" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -22862,7 +22968,7 @@
       <c r="AD654" s="1"/>
       <c r="AE654" s="1"/>
     </row>
-    <row r="655" spans="1:31" ht="15.75" customHeight="1">
+    <row r="655" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -22895,7 +23001,7 @@
       <c r="AD655" s="1"/>
       <c r="AE655" s="1"/>
     </row>
-    <row r="656" spans="1:31" ht="15.75" customHeight="1">
+    <row r="656" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -22928,7 +23034,7 @@
       <c r="AD656" s="1"/>
       <c r="AE656" s="1"/>
     </row>
-    <row r="657" spans="1:31" ht="15.75" customHeight="1">
+    <row r="657" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -22961,7 +23067,7 @@
       <c r="AD657" s="1"/>
       <c r="AE657" s="1"/>
     </row>
-    <row r="658" spans="1:31" ht="15.75" customHeight="1">
+    <row r="658" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -22994,7 +23100,7 @@
       <c r="AD658" s="1"/>
       <c r="AE658" s="1"/>
     </row>
-    <row r="659" spans="1:31" ht="15.75" customHeight="1">
+    <row r="659" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -23027,7 +23133,7 @@
       <c r="AD659" s="1"/>
       <c r="AE659" s="1"/>
     </row>
-    <row r="660" spans="1:31" ht="15.75" customHeight="1">
+    <row r="660" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -23060,7 +23166,7 @@
       <c r="AD660" s="1"/>
       <c r="AE660" s="1"/>
     </row>
-    <row r="661" spans="1:31" ht="15.75" customHeight="1">
+    <row r="661" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -23093,7 +23199,7 @@
       <c r="AD661" s="1"/>
       <c r="AE661" s="1"/>
     </row>
-    <row r="662" spans="1:31" ht="15.75" customHeight="1">
+    <row r="662" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -23126,7 +23232,7 @@
       <c r="AD662" s="1"/>
       <c r="AE662" s="1"/>
     </row>
-    <row r="663" spans="1:31" ht="15.75" customHeight="1">
+    <row r="663" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -23159,7 +23265,7 @@
       <c r="AD663" s="1"/>
       <c r="AE663" s="1"/>
     </row>
-    <row r="664" spans="1:31" ht="15.75" customHeight="1">
+    <row r="664" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -23192,7 +23298,7 @@
       <c r="AD664" s="1"/>
       <c r="AE664" s="1"/>
     </row>
-    <row r="665" spans="1:31" ht="15.75" customHeight="1">
+    <row r="665" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -23225,7 +23331,7 @@
       <c r="AD665" s="1"/>
       <c r="AE665" s="1"/>
     </row>
-    <row r="666" spans="1:31" ht="15.75" customHeight="1">
+    <row r="666" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -23258,7 +23364,7 @@
       <c r="AD666" s="1"/>
       <c r="AE666" s="1"/>
     </row>
-    <row r="667" spans="1:31" ht="15.75" customHeight="1">
+    <row r="667" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -23291,7 +23397,7 @@
       <c r="AD667" s="1"/>
       <c r="AE667" s="1"/>
     </row>
-    <row r="668" spans="1:31" ht="15.75" customHeight="1">
+    <row r="668" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -23324,7 +23430,7 @@
       <c r="AD668" s="1"/>
       <c r="AE668" s="1"/>
     </row>
-    <row r="669" spans="1:31" ht="15.75" customHeight="1">
+    <row r="669" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -23357,7 +23463,7 @@
       <c r="AD669" s="1"/>
       <c r="AE669" s="1"/>
     </row>
-    <row r="670" spans="1:31" ht="15.75" customHeight="1">
+    <row r="670" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -23390,7 +23496,7 @@
       <c r="AD670" s="1"/>
       <c r="AE670" s="1"/>
     </row>
-    <row r="671" spans="1:31" ht="15.75" customHeight="1">
+    <row r="671" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -23423,7 +23529,7 @@
       <c r="AD671" s="1"/>
       <c r="AE671" s="1"/>
     </row>
-    <row r="672" spans="1:31" ht="15.75" customHeight="1">
+    <row r="672" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -23456,7 +23562,7 @@
       <c r="AD672" s="1"/>
       <c r="AE672" s="1"/>
     </row>
-    <row r="673" spans="1:31" ht="15.75" customHeight="1">
+    <row r="673" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -23489,7 +23595,7 @@
       <c r="AD673" s="1"/>
       <c r="AE673" s="1"/>
     </row>
-    <row r="674" spans="1:31" ht="15.75" customHeight="1">
+    <row r="674" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -23522,7 +23628,7 @@
       <c r="AD674" s="1"/>
       <c r="AE674" s="1"/>
     </row>
-    <row r="675" spans="1:31" ht="15.75" customHeight="1">
+    <row r="675" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -23555,7 +23661,7 @@
       <c r="AD675" s="1"/>
       <c r="AE675" s="1"/>
     </row>
-    <row r="676" spans="1:31" ht="15.75" customHeight="1">
+    <row r="676" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -23588,7 +23694,7 @@
       <c r="AD676" s="1"/>
       <c r="AE676" s="1"/>
     </row>
-    <row r="677" spans="1:31" ht="15.75" customHeight="1">
+    <row r="677" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -23621,7 +23727,7 @@
       <c r="AD677" s="1"/>
       <c r="AE677" s="1"/>
     </row>
-    <row r="678" spans="1:31" ht="15.75" customHeight="1">
+    <row r="678" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -23654,7 +23760,7 @@
       <c r="AD678" s="1"/>
       <c r="AE678" s="1"/>
     </row>
-    <row r="679" spans="1:31" ht="15.75" customHeight="1">
+    <row r="679" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -23687,7 +23793,7 @@
       <c r="AD679" s="1"/>
       <c r="AE679" s="1"/>
     </row>
-    <row r="680" spans="1:31" ht="15.75" customHeight="1">
+    <row r="680" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -23720,7 +23826,7 @@
       <c r="AD680" s="1"/>
       <c r="AE680" s="1"/>
     </row>
-    <row r="681" spans="1:31" ht="15.75" customHeight="1">
+    <row r="681" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -23753,7 +23859,7 @@
       <c r="AD681" s="1"/>
       <c r="AE681" s="1"/>
     </row>
-    <row r="682" spans="1:31" ht="15.75" customHeight="1">
+    <row r="682" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -23786,7 +23892,7 @@
       <c r="AD682" s="1"/>
       <c r="AE682" s="1"/>
     </row>
-    <row r="683" spans="1:31" ht="15.75" customHeight="1">
+    <row r="683" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -23819,7 +23925,7 @@
       <c r="AD683" s="1"/>
       <c r="AE683" s="1"/>
     </row>
-    <row r="684" spans="1:31" ht="15.75" customHeight="1">
+    <row r="684" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -23852,7 +23958,7 @@
       <c r="AD684" s="1"/>
       <c r="AE684" s="1"/>
     </row>
-    <row r="685" spans="1:31" ht="15.75" customHeight="1">
+    <row r="685" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -23885,7 +23991,7 @@
       <c r="AD685" s="1"/>
       <c r="AE685" s="1"/>
     </row>
-    <row r="686" spans="1:31" ht="15.75" customHeight="1">
+    <row r="686" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -23918,7 +24024,7 @@
       <c r="AD686" s="1"/>
       <c r="AE686" s="1"/>
     </row>
-    <row r="687" spans="1:31" ht="15.75" customHeight="1">
+    <row r="687" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -23951,7 +24057,7 @@
       <c r="AD687" s="1"/>
       <c r="AE687" s="1"/>
     </row>
-    <row r="688" spans="1:31" ht="15.75" customHeight="1">
+    <row r="688" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -23984,7 +24090,7 @@
       <c r="AD688" s="1"/>
       <c r="AE688" s="1"/>
     </row>
-    <row r="689" spans="1:31" ht="15.75" customHeight="1">
+    <row r="689" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -24017,7 +24123,7 @@
       <c r="AD689" s="1"/>
       <c r="AE689" s="1"/>
     </row>
-    <row r="690" spans="1:31" ht="15.75" customHeight="1">
+    <row r="690" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -24050,7 +24156,7 @@
       <c r="AD690" s="1"/>
       <c r="AE690" s="1"/>
     </row>
-    <row r="691" spans="1:31" ht="15.75" customHeight="1">
+    <row r="691" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -24083,7 +24189,7 @@
       <c r="AD691" s="1"/>
       <c r="AE691" s="1"/>
     </row>
-    <row r="692" spans="1:31" ht="15.75" customHeight="1">
+    <row r="692" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -24116,7 +24222,7 @@
       <c r="AD692" s="1"/>
       <c r="AE692" s="1"/>
     </row>
-    <row r="693" spans="1:31" ht="15.75" customHeight="1">
+    <row r="693" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -24149,7 +24255,7 @@
       <c r="AD693" s="1"/>
       <c r="AE693" s="1"/>
     </row>
-    <row r="694" spans="1:31" ht="15.75" customHeight="1">
+    <row r="694" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -24182,7 +24288,7 @@
       <c r="AD694" s="1"/>
       <c r="AE694" s="1"/>
     </row>
-    <row r="695" spans="1:31" ht="15.75" customHeight="1">
+    <row r="695" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -24215,7 +24321,7 @@
       <c r="AD695" s="1"/>
       <c r="AE695" s="1"/>
     </row>
-    <row r="696" spans="1:31" ht="15.75" customHeight="1">
+    <row r="696" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -24248,7 +24354,7 @@
       <c r="AD696" s="1"/>
       <c r="AE696" s="1"/>
     </row>
-    <row r="697" spans="1:31" ht="15.75" customHeight="1">
+    <row r="697" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -24281,7 +24387,7 @@
       <c r="AD697" s="1"/>
       <c r="AE697" s="1"/>
     </row>
-    <row r="698" spans="1:31" ht="15.75" customHeight="1">
+    <row r="698" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -24314,7 +24420,7 @@
       <c r="AD698" s="1"/>
       <c r="AE698" s="1"/>
     </row>
-    <row r="699" spans="1:31" ht="15.75" customHeight="1">
+    <row r="699" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -24347,7 +24453,7 @@
       <c r="AD699" s="1"/>
       <c r="AE699" s="1"/>
     </row>
-    <row r="700" spans="1:31" ht="15.75" customHeight="1">
+    <row r="700" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -24380,7 +24486,7 @@
       <c r="AD700" s="1"/>
       <c r="AE700" s="1"/>
     </row>
-    <row r="701" spans="1:31" ht="15.75" customHeight="1">
+    <row r="701" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -24413,7 +24519,7 @@
       <c r="AD701" s="1"/>
       <c r="AE701" s="1"/>
     </row>
-    <row r="702" spans="1:31" ht="15.75" customHeight="1">
+    <row r="702" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -24446,7 +24552,7 @@
       <c r="AD702" s="1"/>
       <c r="AE702" s="1"/>
     </row>
-    <row r="703" spans="1:31" ht="15.75" customHeight="1">
+    <row r="703" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -24479,7 +24585,7 @@
       <c r="AD703" s="1"/>
       <c r="AE703" s="1"/>
     </row>
-    <row r="704" spans="1:31" ht="15.75" customHeight="1">
+    <row r="704" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -24512,7 +24618,7 @@
       <c r="AD704" s="1"/>
       <c r="AE704" s="1"/>
     </row>
-    <row r="705" spans="1:31" ht="15.75" customHeight="1">
+    <row r="705" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -24545,7 +24651,7 @@
       <c r="AD705" s="1"/>
       <c r="AE705" s="1"/>
     </row>
-    <row r="706" spans="1:31" ht="15.75" customHeight="1">
+    <row r="706" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -24578,7 +24684,7 @@
       <c r="AD706" s="1"/>
       <c r="AE706" s="1"/>
     </row>
-    <row r="707" spans="1:31" ht="15.75" customHeight="1">
+    <row r="707" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -24611,7 +24717,7 @@
       <c r="AD707" s="1"/>
       <c r="AE707" s="1"/>
     </row>
-    <row r="708" spans="1:31" ht="15.75" customHeight="1">
+    <row r="708" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -24644,7 +24750,7 @@
       <c r="AD708" s="1"/>
       <c r="AE708" s="1"/>
     </row>
-    <row r="709" spans="1:31" ht="15.75" customHeight="1">
+    <row r="709" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -24677,7 +24783,7 @@
       <c r="AD709" s="1"/>
       <c r="AE709" s="1"/>
     </row>
-    <row r="710" spans="1:31" ht="15.75" customHeight="1">
+    <row r="710" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -24710,7 +24816,7 @@
       <c r="AD710" s="1"/>
       <c r="AE710" s="1"/>
     </row>
-    <row r="711" spans="1:31" ht="15.75" customHeight="1">
+    <row r="711" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -24743,7 +24849,7 @@
       <c r="AD711" s="1"/>
       <c r="AE711" s="1"/>
     </row>
-    <row r="712" spans="1:31" ht="15.75" customHeight="1">
+    <row r="712" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -24776,7 +24882,7 @@
       <c r="AD712" s="1"/>
       <c r="AE712" s="1"/>
     </row>
-    <row r="713" spans="1:31" ht="15.75" customHeight="1">
+    <row r="713" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -24809,7 +24915,7 @@
       <c r="AD713" s="1"/>
       <c r="AE713" s="1"/>
     </row>
-    <row r="714" spans="1:31" ht="15.75" customHeight="1">
+    <row r="714" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -24842,7 +24948,7 @@
       <c r="AD714" s="1"/>
       <c r="AE714" s="1"/>
     </row>
-    <row r="715" spans="1:31" ht="15.75" customHeight="1">
+    <row r="715" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -24875,7 +24981,7 @@
       <c r="AD715" s="1"/>
       <c r="AE715" s="1"/>
     </row>
-    <row r="716" spans="1:31" ht="15.75" customHeight="1">
+    <row r="716" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -24908,7 +25014,7 @@
       <c r="AD716" s="1"/>
       <c r="AE716" s="1"/>
     </row>
-    <row r="717" spans="1:31" ht="15.75" customHeight="1">
+    <row r="717" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -24941,7 +25047,7 @@
       <c r="AD717" s="1"/>
       <c r="AE717" s="1"/>
     </row>
-    <row r="718" spans="1:31" ht="15.75" customHeight="1">
+    <row r="718" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -24974,7 +25080,7 @@
       <c r="AD718" s="1"/>
       <c r="AE718" s="1"/>
     </row>
-    <row r="719" spans="1:31" ht="15.75" customHeight="1">
+    <row r="719" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -25007,7 +25113,7 @@
       <c r="AD719" s="1"/>
       <c r="AE719" s="1"/>
     </row>
-    <row r="720" spans="1:31" ht="15.75" customHeight="1">
+    <row r="720" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -25040,7 +25146,7 @@
       <c r="AD720" s="1"/>
       <c r="AE720" s="1"/>
     </row>
-    <row r="721" spans="1:31" ht="15.75" customHeight="1">
+    <row r="721" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -25073,7 +25179,7 @@
       <c r="AD721" s="1"/>
       <c r="AE721" s="1"/>
     </row>
-    <row r="722" spans="1:31" ht="15.75" customHeight="1">
+    <row r="722" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -25106,7 +25212,7 @@
       <c r="AD722" s="1"/>
       <c r="AE722" s="1"/>
     </row>
-    <row r="723" spans="1:31" ht="15.75" customHeight="1">
+    <row r="723" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -25139,7 +25245,7 @@
       <c r="AD723" s="1"/>
       <c r="AE723" s="1"/>
     </row>
-    <row r="724" spans="1:31" ht="15.75" customHeight="1">
+    <row r="724" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -25172,7 +25278,7 @@
       <c r="AD724" s="1"/>
       <c r="AE724" s="1"/>
     </row>
-    <row r="725" spans="1:31" ht="15.75" customHeight="1">
+    <row r="725" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -25205,7 +25311,7 @@
       <c r="AD725" s="1"/>
       <c r="AE725" s="1"/>
     </row>
-    <row r="726" spans="1:31" ht="15.75" customHeight="1">
+    <row r="726" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -25238,7 +25344,7 @@
       <c r="AD726" s="1"/>
       <c r="AE726" s="1"/>
     </row>
-    <row r="727" spans="1:31" ht="15.75" customHeight="1">
+    <row r="727" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -25271,7 +25377,7 @@
       <c r="AD727" s="1"/>
       <c r="AE727" s="1"/>
     </row>
-    <row r="728" spans="1:31" ht="15.75" customHeight="1">
+    <row r="728" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -25304,7 +25410,7 @@
       <c r="AD728" s="1"/>
       <c r="AE728" s="1"/>
     </row>
-    <row r="729" spans="1:31" ht="15.75" customHeight="1">
+    <row r="729" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -25337,7 +25443,7 @@
       <c r="AD729" s="1"/>
       <c r="AE729" s="1"/>
     </row>
-    <row r="730" spans="1:31" ht="15.75" customHeight="1">
+    <row r="730" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -25370,7 +25476,7 @@
       <c r="AD730" s="1"/>
       <c r="AE730" s="1"/>
     </row>
-    <row r="731" spans="1:31" ht="15.75" customHeight="1">
+    <row r="731" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -25403,7 +25509,7 @@
       <c r="AD731" s="1"/>
       <c r="AE731" s="1"/>
     </row>
-    <row r="732" spans="1:31" ht="15.75" customHeight="1">
+    <row r="732" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -25436,7 +25542,7 @@
       <c r="AD732" s="1"/>
       <c r="AE732" s="1"/>
     </row>
-    <row r="733" spans="1:31" ht="15.75" customHeight="1">
+    <row r="733" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -25469,7 +25575,7 @@
       <c r="AD733" s="1"/>
       <c r="AE733" s="1"/>
     </row>
-    <row r="734" spans="1:31" ht="15.75" customHeight="1">
+    <row r="734" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -25502,7 +25608,7 @@
       <c r="AD734" s="1"/>
       <c r="AE734" s="1"/>
     </row>
-    <row r="735" spans="1:31" ht="15.75" customHeight="1">
+    <row r="735" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -25535,7 +25641,7 @@
       <c r="AD735" s="1"/>
       <c r="AE735" s="1"/>
     </row>
-    <row r="736" spans="1:31" ht="15.75" customHeight="1">
+    <row r="736" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -25568,7 +25674,7 @@
       <c r="AD736" s="1"/>
       <c r="AE736" s="1"/>
     </row>
-    <row r="737" spans="1:31" ht="15.75" customHeight="1">
+    <row r="737" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -25601,7 +25707,7 @@
       <c r="AD737" s="1"/>
       <c r="AE737" s="1"/>
     </row>
-    <row r="738" spans="1:31" ht="15.75" customHeight="1">
+    <row r="738" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -25634,7 +25740,7 @@
       <c r="AD738" s="1"/>
       <c r="AE738" s="1"/>
     </row>
-    <row r="739" spans="1:31" ht="15.75" customHeight="1">
+    <row r="739" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -25667,7 +25773,7 @@
       <c r="AD739" s="1"/>
       <c r="AE739" s="1"/>
     </row>
-    <row r="740" spans="1:31" ht="15.75" customHeight="1">
+    <row r="740" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -25700,7 +25806,7 @@
       <c r="AD740" s="1"/>
       <c r="AE740" s="1"/>
     </row>
-    <row r="741" spans="1:31" ht="15.75" customHeight="1">
+    <row r="741" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -25733,7 +25839,7 @@
       <c r="AD741" s="1"/>
       <c r="AE741" s="1"/>
     </row>
-    <row r="742" spans="1:31" ht="15.75" customHeight="1">
+    <row r="742" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -25766,7 +25872,7 @@
       <c r="AD742" s="1"/>
       <c r="AE742" s="1"/>
     </row>
-    <row r="743" spans="1:31" ht="15.75" customHeight="1">
+    <row r="743" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -25799,7 +25905,7 @@
       <c r="AD743" s="1"/>
       <c r="AE743" s="1"/>
     </row>
-    <row r="744" spans="1:31" ht="15.75" customHeight="1">
+    <row r="744" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -25832,7 +25938,7 @@
       <c r="AD744" s="1"/>
       <c r="AE744" s="1"/>
     </row>
-    <row r="745" spans="1:31" ht="15.75" customHeight="1">
+    <row r="745" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -25865,7 +25971,7 @@
       <c r="AD745" s="1"/>
       <c r="AE745" s="1"/>
     </row>
-    <row r="746" spans="1:31" ht="15.75" customHeight="1">
+    <row r="746" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -25898,7 +26004,7 @@
       <c r="AD746" s="1"/>
       <c r="AE746" s="1"/>
     </row>
-    <row r="747" spans="1:31" ht="15.75" customHeight="1">
+    <row r="747" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -25931,7 +26037,7 @@
       <c r="AD747" s="1"/>
       <c r="AE747" s="1"/>
     </row>
-    <row r="748" spans="1:31" ht="15.75" customHeight="1">
+    <row r="748" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -25964,7 +26070,7 @@
       <c r="AD748" s="1"/>
       <c r="AE748" s="1"/>
     </row>
-    <row r="749" spans="1:31" ht="15.75" customHeight="1">
+    <row r="749" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -25997,7 +26103,7 @@
       <c r="AD749" s="1"/>
       <c r="AE749" s="1"/>
     </row>
-    <row r="750" spans="1:31" ht="15.75" customHeight="1">
+    <row r="750" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -26030,7 +26136,7 @@
       <c r="AD750" s="1"/>
       <c r="AE750" s="1"/>
     </row>
-    <row r="751" spans="1:31" ht="15.75" customHeight="1">
+    <row r="751" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -26063,7 +26169,7 @@
       <c r="AD751" s="1"/>
       <c r="AE751" s="1"/>
     </row>
-    <row r="752" spans="1:31" ht="15.75" customHeight="1">
+    <row r="752" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -26096,7 +26202,7 @@
       <c r="AD752" s="1"/>
       <c r="AE752" s="1"/>
     </row>
-    <row r="753" spans="1:31" ht="15.75" customHeight="1">
+    <row r="753" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -26129,7 +26235,7 @@
       <c r="AD753" s="1"/>
       <c r="AE753" s="1"/>
     </row>
-    <row r="754" spans="1:31" ht="15.75" customHeight="1">
+    <row r="754" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -26162,7 +26268,7 @@
       <c r="AD754" s="1"/>
       <c r="AE754" s="1"/>
     </row>
-    <row r="755" spans="1:31" ht="15.75" customHeight="1">
+    <row r="755" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -26195,7 +26301,7 @@
       <c r="AD755" s="1"/>
       <c r="AE755" s="1"/>
     </row>
-    <row r="756" spans="1:31" ht="15.75" customHeight="1">
+    <row r="756" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -26228,7 +26334,7 @@
       <c r="AD756" s="1"/>
       <c r="AE756" s="1"/>
     </row>
-    <row r="757" spans="1:31" ht="15.75" customHeight="1">
+    <row r="757" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -26261,7 +26367,7 @@
       <c r="AD757" s="1"/>
       <c r="AE757" s="1"/>
     </row>
-    <row r="758" spans="1:31" ht="15.75" customHeight="1">
+    <row r="758" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -26294,7 +26400,7 @@
       <c r="AD758" s="1"/>
       <c r="AE758" s="1"/>
     </row>
-    <row r="759" spans="1:31" ht="15.75" customHeight="1">
+    <row r="759" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -26327,7 +26433,7 @@
       <c r="AD759" s="1"/>
       <c r="AE759" s="1"/>
     </row>
-    <row r="760" spans="1:31" ht="15.75" customHeight="1">
+    <row r="760" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -26360,7 +26466,7 @@
       <c r="AD760" s="1"/>
       <c r="AE760" s="1"/>
     </row>
-    <row r="761" spans="1:31" ht="15.75" customHeight="1">
+    <row r="761" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -26393,7 +26499,7 @@
       <c r="AD761" s="1"/>
       <c r="AE761" s="1"/>
     </row>
-    <row r="762" spans="1:31" ht="15.75" customHeight="1">
+    <row r="762" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -26426,7 +26532,7 @@
       <c r="AD762" s="1"/>
       <c r="AE762" s="1"/>
     </row>
-    <row r="763" spans="1:31" ht="15.75" customHeight="1">
+    <row r="763" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -26459,7 +26565,7 @@
       <c r="AD763" s="1"/>
       <c r="AE763" s="1"/>
     </row>
-    <row r="764" spans="1:31" ht="15.75" customHeight="1">
+    <row r="764" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -26492,7 +26598,7 @@
       <c r="AD764" s="1"/>
       <c r="AE764" s="1"/>
     </row>
-    <row r="765" spans="1:31" ht="15.75" customHeight="1">
+    <row r="765" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -26525,7 +26631,7 @@
       <c r="AD765" s="1"/>
       <c r="AE765" s="1"/>
     </row>
-    <row r="766" spans="1:31" ht="15.75" customHeight="1">
+    <row r="766" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -26558,7 +26664,7 @@
       <c r="AD766" s="1"/>
       <c r="AE766" s="1"/>
     </row>
-    <row r="767" spans="1:31" ht="15.75" customHeight="1">
+    <row r="767" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -26591,7 +26697,7 @@
       <c r="AD767" s="1"/>
       <c r="AE767" s="1"/>
     </row>
-    <row r="768" spans="1:31" ht="15.75" customHeight="1">
+    <row r="768" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -26624,7 +26730,7 @@
       <c r="AD768" s="1"/>
       <c r="AE768" s="1"/>
     </row>
-    <row r="769" spans="1:31" ht="15.75" customHeight="1">
+    <row r="769" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -26657,7 +26763,7 @@
       <c r="AD769" s="1"/>
       <c r="AE769" s="1"/>
     </row>
-    <row r="770" spans="1:31" ht="15.75" customHeight="1">
+    <row r="770" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -26690,7 +26796,7 @@
       <c r="AD770" s="1"/>
       <c r="AE770" s="1"/>
     </row>
-    <row r="771" spans="1:31" ht="15.75" customHeight="1">
+    <row r="771" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -26723,7 +26829,7 @@
       <c r="AD771" s="1"/>
       <c r="AE771" s="1"/>
     </row>
-    <row r="772" spans="1:31" ht="15.75" customHeight="1">
+    <row r="772" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -26756,7 +26862,7 @@
       <c r="AD772" s="1"/>
       <c r="AE772" s="1"/>
     </row>
-    <row r="773" spans="1:31" ht="15.75" customHeight="1">
+    <row r="773" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -26789,7 +26895,7 @@
       <c r="AD773" s="1"/>
       <c r="AE773" s="1"/>
     </row>
-    <row r="774" spans="1:31" ht="15.75" customHeight="1">
+    <row r="774" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -26822,7 +26928,7 @@
       <c r="AD774" s="1"/>
       <c r="AE774" s="1"/>
     </row>
-    <row r="775" spans="1:31" ht="15.75" customHeight="1">
+    <row r="775" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -26855,7 +26961,7 @@
       <c r="AD775" s="1"/>
       <c r="AE775" s="1"/>
     </row>
-    <row r="776" spans="1:31" ht="15.75" customHeight="1">
+    <row r="776" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -26888,7 +26994,7 @@
       <c r="AD776" s="1"/>
       <c r="AE776" s="1"/>
     </row>
-    <row r="777" spans="1:31" ht="15.75" customHeight="1">
+    <row r="777" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -26921,7 +27027,7 @@
       <c r="AD777" s="1"/>
       <c r="AE777" s="1"/>
     </row>
-    <row r="778" spans="1:31" ht="15.75" customHeight="1">
+    <row r="778" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -26954,7 +27060,7 @@
       <c r="AD778" s="1"/>
       <c r="AE778" s="1"/>
     </row>
-    <row r="779" spans="1:31" ht="15.75" customHeight="1">
+    <row r="779" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -26987,7 +27093,7 @@
       <c r="AD779" s="1"/>
       <c r="AE779" s="1"/>
     </row>
-    <row r="780" spans="1:31" ht="15.75" customHeight="1">
+    <row r="780" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -27020,7 +27126,7 @@
       <c r="AD780" s="1"/>
       <c r="AE780" s="1"/>
     </row>
-    <row r="781" spans="1:31" ht="15.75" customHeight="1">
+    <row r="781" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -27053,7 +27159,7 @@
       <c r="AD781" s="1"/>
       <c r="AE781" s="1"/>
     </row>
-    <row r="782" spans="1:31" ht="15.75" customHeight="1">
+    <row r="782" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -27086,7 +27192,7 @@
       <c r="AD782" s="1"/>
       <c r="AE782" s="1"/>
     </row>
-    <row r="783" spans="1:31" ht="15.75" customHeight="1">
+    <row r="783" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -27119,7 +27225,7 @@
       <c r="AD783" s="1"/>
       <c r="AE783" s="1"/>
     </row>
-    <row r="784" spans="1:31" ht="15.75" customHeight="1">
+    <row r="784" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -27152,7 +27258,7 @@
       <c r="AD784" s="1"/>
       <c r="AE784" s="1"/>
     </row>
-    <row r="785" spans="1:31" ht="15.75" customHeight="1">
+    <row r="785" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -27185,7 +27291,7 @@
       <c r="AD785" s="1"/>
       <c r="AE785" s="1"/>
     </row>
-    <row r="786" spans="1:31" ht="15.75" customHeight="1">
+    <row r="786" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -27218,7 +27324,7 @@
       <c r="AD786" s="1"/>
       <c r="AE786" s="1"/>
     </row>
-    <row r="787" spans="1:31" ht="15.75" customHeight="1">
+    <row r="787" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -27251,7 +27357,7 @@
       <c r="AD787" s="1"/>
       <c r="AE787" s="1"/>
     </row>
-    <row r="788" spans="1:31" ht="15.75" customHeight="1">
+    <row r="788" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -27284,7 +27390,7 @@
       <c r="AD788" s="1"/>
       <c r="AE788" s="1"/>
     </row>
-    <row r="789" spans="1:31" ht="15.75" customHeight="1">
+    <row r="789" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -27317,7 +27423,7 @@
       <c r="AD789" s="1"/>
       <c r="AE789" s="1"/>
     </row>
-    <row r="790" spans="1:31" ht="15.75" customHeight="1">
+    <row r="790" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -27350,7 +27456,7 @@
       <c r="AD790" s="1"/>
       <c r="AE790" s="1"/>
     </row>
-    <row r="791" spans="1:31" ht="15.75" customHeight="1">
+    <row r="791" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -27383,7 +27489,7 @@
       <c r="AD791" s="1"/>
       <c r="AE791" s="1"/>
     </row>
-    <row r="792" spans="1:31" ht="15.75" customHeight="1">
+    <row r="792" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -27416,7 +27522,7 @@
       <c r="AD792" s="1"/>
       <c r="AE792" s="1"/>
     </row>
-    <row r="793" spans="1:31" ht="15.75" customHeight="1">
+    <row r="793" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -27449,7 +27555,7 @@
       <c r="AD793" s="1"/>
       <c r="AE793" s="1"/>
     </row>
-    <row r="794" spans="1:31" ht="15.75" customHeight="1">
+    <row r="794" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -27482,7 +27588,7 @@
       <c r="AD794" s="1"/>
       <c r="AE794" s="1"/>
     </row>
-    <row r="795" spans="1:31" ht="15.75" customHeight="1">
+    <row r="795" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -27515,7 +27621,7 @@
       <c r="AD795" s="1"/>
       <c r="AE795" s="1"/>
     </row>
-    <row r="796" spans="1:31" ht="15.75" customHeight="1">
+    <row r="796" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -27548,7 +27654,7 @@
       <c r="AD796" s="1"/>
       <c r="AE796" s="1"/>
     </row>
-    <row r="797" spans="1:31" ht="15.75" customHeight="1">
+    <row r="797" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -27581,7 +27687,7 @@
       <c r="AD797" s="1"/>
       <c r="AE797" s="1"/>
     </row>
-    <row r="798" spans="1:31" ht="15.75" customHeight="1">
+    <row r="798" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -27614,7 +27720,7 @@
       <c r="AD798" s="1"/>
       <c r="AE798" s="1"/>
     </row>
-    <row r="799" spans="1:31" ht="15.75" customHeight="1">
+    <row r="799" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -27647,7 +27753,7 @@
       <c r="AD799" s="1"/>
       <c r="AE799" s="1"/>
     </row>
-    <row r="800" spans="1:31" ht="15.75" customHeight="1">
+    <row r="800" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -27680,7 +27786,7 @@
       <c r="AD800" s="1"/>
       <c r="AE800" s="1"/>
     </row>
-    <row r="801" spans="1:31" ht="15.75" customHeight="1">
+    <row r="801" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -27713,7 +27819,7 @@
       <c r="AD801" s="1"/>
       <c r="AE801" s="1"/>
     </row>
-    <row r="802" spans="1:31" ht="15.75" customHeight="1">
+    <row r="802" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -27746,7 +27852,7 @@
       <c r="AD802" s="1"/>
       <c r="AE802" s="1"/>
     </row>
-    <row r="803" spans="1:31" ht="15.75" customHeight="1">
+    <row r="803" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -27779,7 +27885,7 @@
       <c r="AD803" s="1"/>
       <c r="AE803" s="1"/>
     </row>
-    <row r="804" spans="1:31" ht="15.75" customHeight="1">
+    <row r="804" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -27812,7 +27918,7 @@
       <c r="AD804" s="1"/>
       <c r="AE804" s="1"/>
     </row>
-    <row r="805" spans="1:31" ht="15.75" customHeight="1">
+    <row r="805" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -27845,7 +27951,7 @@
       <c r="AD805" s="1"/>
       <c r="AE805" s="1"/>
     </row>
-    <row r="806" spans="1:31" ht="15.75" customHeight="1">
+    <row r="806" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -27878,7 +27984,7 @@
       <c r="AD806" s="1"/>
       <c r="AE806" s="1"/>
     </row>
-    <row r="807" spans="1:31" ht="15.75" customHeight="1">
+    <row r="807" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -27911,7 +28017,7 @@
       <c r="AD807" s="1"/>
       <c r="AE807" s="1"/>
     </row>
-    <row r="808" spans="1:31" ht="15.75" customHeight="1">
+    <row r="808" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -27944,7 +28050,7 @@
       <c r="AD808" s="1"/>
       <c r="AE808" s="1"/>
     </row>
-    <row r="809" spans="1:31" ht="15.75" customHeight="1">
+    <row r="809" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -27977,7 +28083,7 @@
       <c r="AD809" s="1"/>
       <c r="AE809" s="1"/>
     </row>
-    <row r="810" spans="1:31" ht="15.75" customHeight="1">
+    <row r="810" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -28010,7 +28116,7 @@
       <c r="AD810" s="1"/>
       <c r="AE810" s="1"/>
     </row>
-    <row r="811" spans="1:31" ht="15.75" customHeight="1">
+    <row r="811" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -28043,7 +28149,7 @@
       <c r="AD811" s="1"/>
       <c r="AE811" s="1"/>
     </row>
-    <row r="812" spans="1:31" ht="15.75" customHeight="1">
+    <row r="812" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -28076,7 +28182,7 @@
       <c r="AD812" s="1"/>
       <c r="AE812" s="1"/>
     </row>
-    <row r="813" spans="1:31" ht="15.75" customHeight="1">
+    <row r="813" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -28109,7 +28215,7 @@
       <c r="AD813" s="1"/>
       <c r="AE813" s="1"/>
     </row>
-    <row r="814" spans="1:31" ht="15.75" customHeight="1">
+    <row r="814" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -28142,7 +28248,7 @@
       <c r="AD814" s="1"/>
       <c r="AE814" s="1"/>
     </row>
-    <row r="815" spans="1:31" ht="15.75" customHeight="1">
+    <row r="815" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -28175,7 +28281,7 @@
       <c r="AD815" s="1"/>
       <c r="AE815" s="1"/>
     </row>
-    <row r="816" spans="1:31" ht="15.75" customHeight="1">
+    <row r="816" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -28208,7 +28314,7 @@
       <c r="AD816" s="1"/>
       <c r="AE816" s="1"/>
     </row>
-    <row r="817" spans="1:31" ht="15.75" customHeight="1">
+    <row r="817" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -28241,7 +28347,7 @@
       <c r="AD817" s="1"/>
       <c r="AE817" s="1"/>
     </row>
-    <row r="818" spans="1:31" ht="15.75" customHeight="1">
+    <row r="818" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -28274,7 +28380,7 @@
       <c r="AD818" s="1"/>
       <c r="AE818" s="1"/>
     </row>
-    <row r="819" spans="1:31" ht="15.75" customHeight="1">
+    <row r="819" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -28307,7 +28413,7 @@
       <c r="AD819" s="1"/>
       <c r="AE819" s="1"/>
     </row>
-    <row r="820" spans="1:31" ht="15.75" customHeight="1">
+    <row r="820" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -28340,7 +28446,7 @@
       <c r="AD820" s="1"/>
       <c r="AE820" s="1"/>
     </row>
-    <row r="821" spans="1:31" ht="15.75" customHeight="1">
+    <row r="821" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -28373,7 +28479,7 @@
       <c r="AD821" s="1"/>
       <c r="AE821" s="1"/>
     </row>
-    <row r="822" spans="1:31" ht="15.75" customHeight="1">
+    <row r="822" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -28406,7 +28512,7 @@
       <c r="AD822" s="1"/>
       <c r="AE822" s="1"/>
     </row>
-    <row r="823" spans="1:31" ht="15.75" customHeight="1">
+    <row r="823" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -28439,7 +28545,7 @@
       <c r="AD823" s="1"/>
       <c r="AE823" s="1"/>
     </row>
-    <row r="824" spans="1:31" ht="15.75" customHeight="1">
+    <row r="824" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -28472,7 +28578,7 @@
       <c r="AD824" s="1"/>
       <c r="AE824" s="1"/>
     </row>
-    <row r="825" spans="1:31" ht="15.75" customHeight="1">
+    <row r="825" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -28505,7 +28611,7 @@
       <c r="AD825" s="1"/>
       <c r="AE825" s="1"/>
     </row>
-    <row r="826" spans="1:31" ht="15.75" customHeight="1">
+    <row r="826" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -28538,7 +28644,7 @@
       <c r="AD826" s="1"/>
       <c r="AE826" s="1"/>
     </row>
-    <row r="827" spans="1:31" ht="15.75" customHeight="1">
+    <row r="827" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -28571,7 +28677,7 @@
       <c r="AD827" s="1"/>
       <c r="AE827" s="1"/>
     </row>
-    <row r="828" spans="1:31" ht="15.75" customHeight="1">
+    <row r="828" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -28604,7 +28710,7 @@
       <c r="AD828" s="1"/>
       <c r="AE828" s="1"/>
     </row>
-    <row r="829" spans="1:31" ht="15.75" customHeight="1">
+    <row r="829" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -28637,7 +28743,7 @@
       <c r="AD829" s="1"/>
       <c r="AE829" s="1"/>
     </row>
-    <row r="830" spans="1:31" ht="15.75" customHeight="1">
+    <row r="830" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -28670,7 +28776,7 @@
       <c r="AD830" s="1"/>
       <c r="AE830" s="1"/>
     </row>
-    <row r="831" spans="1:31" ht="15.75" customHeight="1">
+    <row r="831" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -28703,7 +28809,7 @@
       <c r="AD831" s="1"/>
       <c r="AE831" s="1"/>
     </row>
-    <row r="832" spans="1:31" ht="15.75" customHeight="1">
+    <row r="832" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -28736,7 +28842,7 @@
       <c r="AD832" s="1"/>
       <c r="AE832" s="1"/>
     </row>
-    <row r="833" spans="1:31" ht="15.75" customHeight="1">
+    <row r="833" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -28769,7 +28875,7 @@
       <c r="AD833" s="1"/>
       <c r="AE833" s="1"/>
     </row>
-    <row r="834" spans="1:31" ht="15.75" customHeight="1">
+    <row r="834" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -28802,7 +28908,7 @@
       <c r="AD834" s="1"/>
       <c r="AE834" s="1"/>
     </row>
-    <row r="835" spans="1:31" ht="15.75" customHeight="1">
+    <row r="835" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -28835,7 +28941,7 @@
       <c r="AD835" s="1"/>
       <c r="AE835" s="1"/>
     </row>
-    <row r="836" spans="1:31" ht="15.75" customHeight="1">
+    <row r="836" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -28868,7 +28974,7 @@
       <c r="AD836" s="1"/>
       <c r="AE836" s="1"/>
     </row>
-    <row r="837" spans="1:31" ht="15.75" customHeight="1">
+    <row r="837" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -28901,7 +29007,7 @@
       <c r="AD837" s="1"/>
       <c r="AE837" s="1"/>
     </row>
-    <row r="838" spans="1:31" ht="15.75" customHeight="1">
+    <row r="838" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -28934,7 +29040,7 @@
       <c r="AD838" s="1"/>
       <c r="AE838" s="1"/>
     </row>
-    <row r="839" spans="1:31" ht="15.75" customHeight="1">
+    <row r="839" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -28967,7 +29073,7 @@
       <c r="AD839" s="1"/>
       <c r="AE839" s="1"/>
     </row>
-    <row r="840" spans="1:31" ht="15.75" customHeight="1">
+    <row r="840" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -29000,7 +29106,7 @@
       <c r="AD840" s="1"/>
       <c r="AE840" s="1"/>
     </row>
-    <row r="841" spans="1:31" ht="15.75" customHeight="1">
+    <row r="841" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -29033,7 +29139,7 @@
       <c r="AD841" s="1"/>
       <c r="AE841" s="1"/>
     </row>
-    <row r="842" spans="1:31" ht="15.75" customHeight="1">
+    <row r="842" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -29066,7 +29172,7 @@
       <c r="AD842" s="1"/>
       <c r="AE842" s="1"/>
     </row>
-    <row r="843" spans="1:31" ht="15.75" customHeight="1">
+    <row r="843" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -29099,7 +29205,7 @@
       <c r="AD843" s="1"/>
       <c r="AE843" s="1"/>
     </row>
-    <row r="844" spans="1:31" ht="15.75" customHeight="1">
+    <row r="844" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -29132,7 +29238,7 @@
       <c r="AD844" s="1"/>
       <c r="AE844" s="1"/>
     </row>
-    <row r="845" spans="1:31" ht="15.75" customHeight="1">
+    <row r="845" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -29165,7 +29271,7 @@
       <c r="AD845" s="1"/>
       <c r="AE845" s="1"/>
     </row>
-    <row r="846" spans="1:31" ht="15.75" customHeight="1">
+    <row r="846" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -29198,7 +29304,7 @@
       <c r="AD846" s="1"/>
       <c r="AE846" s="1"/>
     </row>
-    <row r="847" spans="1:31" ht="15.75" customHeight="1">
+    <row r="847" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -29231,7 +29337,7 @@
       <c r="AD847" s="1"/>
       <c r="AE847" s="1"/>
     </row>
-    <row r="848" spans="1:31" ht="15.75" customHeight="1">
+    <row r="848" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -29264,7 +29370,7 @@
       <c r="AD848" s="1"/>
       <c r="AE848" s="1"/>
     </row>
-    <row r="849" spans="1:31" ht="15.75" customHeight="1">
+    <row r="849" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -29297,7 +29403,7 @@
       <c r="AD849" s="1"/>
       <c r="AE849" s="1"/>
     </row>
-    <row r="850" spans="1:31" ht="15.75" customHeight="1">
+    <row r="850" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -29330,7 +29436,7 @@
       <c r="AD850" s="1"/>
       <c r="AE850" s="1"/>
     </row>
-    <row r="851" spans="1:31" ht="15.75" customHeight="1">
+    <row r="851" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -29363,7 +29469,7 @@
       <c r="AD851" s="1"/>
       <c r="AE851" s="1"/>
     </row>
-    <row r="852" spans="1:31" ht="15.75" customHeight="1">
+    <row r="852" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -29396,7 +29502,7 @@
       <c r="AD852" s="1"/>
       <c r="AE852" s="1"/>
     </row>
-    <row r="853" spans="1:31" ht="15.75" customHeight="1">
+    <row r="853" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -29429,7 +29535,7 @@
       <c r="AD853" s="1"/>
       <c r="AE853" s="1"/>
     </row>
-    <row r="854" spans="1:31" ht="15.75" customHeight="1">
+    <row r="854" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -29462,7 +29568,7 @@
       <c r="AD854" s="1"/>
       <c r="AE854" s="1"/>
     </row>
-    <row r="855" spans="1:31" ht="15.75" customHeight="1">
+    <row r="855" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -29495,7 +29601,7 @@
       <c r="AD855" s="1"/>
       <c r="AE855" s="1"/>
     </row>
-    <row r="856" spans="1:31" ht="15.75" customHeight="1">
+    <row r="856" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -29528,7 +29634,7 @@
       <c r="AD856" s="1"/>
       <c r="AE856" s="1"/>
     </row>
-    <row r="857" spans="1:31" ht="15.75" customHeight="1">
+    <row r="857" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -29561,7 +29667,7 @@
       <c r="AD857" s="1"/>
       <c r="AE857" s="1"/>
     </row>
-    <row r="858" spans="1:31" ht="15.75" customHeight="1">
+    <row r="858" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -29594,7 +29700,7 @@
       <c r="AD858" s="1"/>
       <c r="AE858" s="1"/>
     </row>
-    <row r="859" spans="1:31" ht="15.75" customHeight="1">
+    <row r="859" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -29627,7 +29733,7 @@
       <c r="AD859" s="1"/>
       <c r="AE859" s="1"/>
     </row>
-    <row r="860" spans="1:31" ht="15.75" customHeight="1">
+    <row r="860" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -29660,7 +29766,7 @@
       <c r="AD860" s="1"/>
       <c r="AE860" s="1"/>
     </row>
-    <row r="861" spans="1:31" ht="15.75" customHeight="1">
+    <row r="861" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -29693,7 +29799,7 @@
       <c r="AD861" s="1"/>
       <c r="AE861" s="1"/>
     </row>
-    <row r="862" spans="1:31" ht="15.75" customHeight="1">
+    <row r="862" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -29726,7 +29832,7 @@
       <c r="AD862" s="1"/>
       <c r="AE862" s="1"/>
     </row>
-    <row r="863" spans="1:31" ht="15.75" customHeight="1">
+    <row r="863" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -29759,7 +29865,7 @@
       <c r="AD863" s="1"/>
       <c r="AE863" s="1"/>
     </row>
-    <row r="864" spans="1:31" ht="15.75" customHeight="1">
+    <row r="864" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -29792,7 +29898,7 @@
       <c r="AD864" s="1"/>
       <c r="AE864" s="1"/>
     </row>
-    <row r="865" spans="1:31" ht="15.75" customHeight="1">
+    <row r="865" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -29825,7 +29931,7 @@
       <c r="AD865" s="1"/>
       <c r="AE865" s="1"/>
     </row>
-    <row r="866" spans="1:31" ht="15.75" customHeight="1">
+    <row r="866" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -29858,7 +29964,7 @@
       <c r="AD866" s="1"/>
       <c r="AE866" s="1"/>
     </row>
-    <row r="867" spans="1:31" ht="15.75" customHeight="1">
+    <row r="867" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -29891,7 +29997,7 @@
       <c r="AD867" s="1"/>
       <c r="AE867" s="1"/>
     </row>
-    <row r="868" spans="1:31" ht="15.75" customHeight="1">
+    <row r="868" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -29924,7 +30030,7 @@
       <c r="AD868" s="1"/>
       <c r="AE868" s="1"/>
     </row>
-    <row r="869" spans="1:31" ht="15.75" customHeight="1">
+    <row r="869" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -29957,7 +30063,7 @@
       <c r="AD869" s="1"/>
       <c r="AE869" s="1"/>
     </row>
-    <row r="870" spans="1:31" ht="15.75" customHeight="1">
+    <row r="870" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -29990,7 +30096,7 @@
       <c r="AD870" s="1"/>
       <c r="AE870" s="1"/>
     </row>
-    <row r="871" spans="1:31" ht="15.75" customHeight="1">
+    <row r="871" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -30023,7 +30129,7 @@
       <c r="AD871" s="1"/>
       <c r="AE871" s="1"/>
     </row>
-    <row r="872" spans="1:31" ht="15.75" customHeight="1">
+    <row r="872" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -30056,7 +30162,7 @@
       <c r="AD872" s="1"/>
       <c r="AE872" s="1"/>
     </row>
-    <row r="873" spans="1:31" ht="15.75" customHeight="1">
+    <row r="873" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -30089,7 +30195,7 @@
       <c r="AD873" s="1"/>
       <c r="AE873" s="1"/>
     </row>
-    <row r="874" spans="1:31" ht="15.75" customHeight="1">
+    <row r="874" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -30122,7 +30228,7 @@
       <c r="AD874" s="1"/>
       <c r="AE874" s="1"/>
     </row>
-    <row r="875" spans="1:31" ht="15.75" customHeight="1">
+    <row r="875" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -30155,7 +30261,7 @@
       <c r="AD875" s="1"/>
       <c r="AE875" s="1"/>
     </row>
-    <row r="876" spans="1:31" ht="15.75" customHeight="1">
+    <row r="876" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -30188,7 +30294,7 @@
       <c r="AD876" s="1"/>
       <c r="AE876" s="1"/>
     </row>
-    <row r="877" spans="1:31" ht="15.75" customHeight="1">
+    <row r="877" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -30221,7 +30327,7 @@
       <c r="AD877" s="1"/>
       <c r="AE877" s="1"/>
     </row>
-    <row r="878" spans="1:31" ht="15.75" customHeight="1">
+    <row r="878" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -30254,7 +30360,7 @@
       <c r="AD878" s="1"/>
       <c r="AE878" s="1"/>
     </row>
-    <row r="879" spans="1:31" ht="15.75" customHeight="1">
+    <row r="879" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -30287,7 +30393,7 @@
       <c r="AD879" s="1"/>
       <c r="AE879" s="1"/>
     </row>
-    <row r="880" spans="1:31" ht="15.75" customHeight="1">
+    <row r="880" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -30320,7 +30426,7 @@
       <c r="AD880" s="1"/>
       <c r="AE880" s="1"/>
     </row>
-    <row r="881" spans="1:31" ht="15.75" customHeight="1">
+    <row r="881" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -30353,7 +30459,7 @@
       <c r="AD881" s="1"/>
       <c r="AE881" s="1"/>
     </row>
-    <row r="882" spans="1:31" ht="15.75" customHeight="1">
+    <row r="882" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -30386,7 +30492,7 @@
       <c r="AD882" s="1"/>
       <c r="AE882" s="1"/>
     </row>
-    <row r="883" spans="1:31" ht="15.75" customHeight="1">
+    <row r="883" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -30419,7 +30525,7 @@
       <c r="AD883" s="1"/>
       <c r="AE883" s="1"/>
     </row>
-    <row r="884" spans="1:31" ht="15.75" customHeight="1">
+    <row r="884" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -30452,7 +30558,7 @@
       <c r="AD884" s="1"/>
       <c r="AE884" s="1"/>
     </row>
-    <row r="885" spans="1:31" ht="15.75" customHeight="1">
+    <row r="885" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -30485,7 +30591,7 @@
       <c r="AD885" s="1"/>
       <c r="AE885" s="1"/>
     </row>
-    <row r="886" spans="1:31" ht="15.75" customHeight="1">
+    <row r="886" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -30518,7 +30624,7 @@
       <c r="AD886" s="1"/>
       <c r="AE886" s="1"/>
     </row>
-    <row r="887" spans="1:31" ht="15.75" customHeight="1">
+    <row r="887" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -30551,7 +30657,7 @@
       <c r="AD887" s="1"/>
       <c r="AE887" s="1"/>
     </row>
-    <row r="888" spans="1:31" ht="15.75" customHeight="1">
+    <row r="888" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -30584,7 +30690,7 @@
       <c r="AD888" s="1"/>
       <c r="AE888" s="1"/>
     </row>
-    <row r="889" spans="1:31" ht="15.75" customHeight="1">
+    <row r="889" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -30617,7 +30723,7 @@
       <c r="AD889" s="1"/>
       <c r="AE889" s="1"/>
     </row>
-    <row r="890" spans="1:31" ht="15.75" customHeight="1">
+    <row r="890" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -30650,7 +30756,7 @@
       <c r="AD890" s="1"/>
       <c r="AE890" s="1"/>
     </row>
-    <row r="891" spans="1:31" ht="15.75" customHeight="1">
+    <row r="891" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -30683,7 +30789,7 @@
       <c r="AD891" s="1"/>
       <c r="AE891" s="1"/>
     </row>
-    <row r="892" spans="1:31" ht="15.75" customHeight="1">
+    <row r="892" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -30716,7 +30822,7 @@
       <c r="AD892" s="1"/>
       <c r="AE892" s="1"/>
     </row>
-    <row r="893" spans="1:31" ht="15.75" customHeight="1">
+    <row r="893" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -30749,7 +30855,7 @@
       <c r="AD893" s="1"/>
       <c r="AE893" s="1"/>
     </row>
-    <row r="894" spans="1:31" ht="15.75" customHeight="1">
+    <row r="894" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -30782,7 +30888,7 @@
       <c r="AD894" s="1"/>
       <c r="AE894" s="1"/>
     </row>
-    <row r="895" spans="1:31" ht="15.75" customHeight="1">
+    <row r="895" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -30815,7 +30921,7 @@
       <c r="AD895" s="1"/>
       <c r="AE895" s="1"/>
     </row>
-    <row r="896" spans="1:31" ht="15.75" customHeight="1">
+    <row r="896" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -30848,7 +30954,7 @@
       <c r="AD896" s="1"/>
       <c r="AE896" s="1"/>
     </row>
-    <row r="897" spans="1:31" ht="15.75" customHeight="1">
+    <row r="897" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -30881,7 +30987,7 @@
       <c r="AD897" s="1"/>
       <c r="AE897" s="1"/>
     </row>
-    <row r="898" spans="1:31" ht="15.75" customHeight="1">
+    <row r="898" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -30914,7 +31020,7 @@
       <c r="AD898" s="1"/>
       <c r="AE898" s="1"/>
     </row>
-    <row r="899" spans="1:31" ht="15.75" customHeight="1">
+    <row r="899" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -30947,7 +31053,7 @@
       <c r="AD899" s="1"/>
       <c r="AE899" s="1"/>
     </row>
-    <row r="900" spans="1:31" ht="15.75" customHeight="1">
+    <row r="900" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -30980,7 +31086,7 @@
       <c r="AD900" s="1"/>
       <c r="AE900" s="1"/>
     </row>
-    <row r="901" spans="1:31" ht="15.75" customHeight="1">
+    <row r="901" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -31013,7 +31119,7 @@
       <c r="AD901" s="1"/>
       <c r="AE901" s="1"/>
     </row>
-    <row r="902" spans="1:31" ht="15.75" customHeight="1">
+    <row r="902" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -31046,7 +31152,7 @@
       <c r="AD902" s="1"/>
       <c r="AE902" s="1"/>
     </row>
-    <row r="903" spans="1:31" ht="15.75" customHeight="1">
+    <row r="903" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -31079,7 +31185,7 @@
       <c r="AD903" s="1"/>
       <c r="AE903" s="1"/>
     </row>
-    <row r="904" spans="1:31" ht="15.75" customHeight="1">
+    <row r="904" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -31112,7 +31218,7 @@
       <c r="AD904" s="1"/>
       <c r="AE904" s="1"/>
     </row>
-    <row r="905" spans="1:31" ht="15.75" customHeight="1">
+    <row r="905" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -31145,7 +31251,7 @@
       <c r="AD905" s="1"/>
       <c r="AE905" s="1"/>
     </row>
-    <row r="906" spans="1:31" ht="15.75" customHeight="1">
+    <row r="906" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -31178,7 +31284,7 @@
       <c r="AD906" s="1"/>
       <c r="AE906" s="1"/>
     </row>
-    <row r="907" spans="1:31" ht="15.75" customHeight="1">
+    <row r="907" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -31211,7 +31317,7 @@
       <c r="AD907" s="1"/>
       <c r="AE907" s="1"/>
     </row>
-    <row r="908" spans="1:31" ht="15.75" customHeight="1">
+    <row r="908" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -31244,7 +31350,7 @@
       <c r="AD908" s="1"/>
       <c r="AE908" s="1"/>
     </row>
-    <row r="909" spans="1:31" ht="15.75" customHeight="1">
+    <row r="909" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -31277,7 +31383,7 @@
       <c r="AD909" s="1"/>
       <c r="AE909" s="1"/>
     </row>
-    <row r="910" spans="1:31" ht="15.75" customHeight="1">
+    <row r="910" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -31310,7 +31416,7 @@
       <c r="AD910" s="1"/>
       <c r="AE910" s="1"/>
     </row>
-    <row r="911" spans="1:31" ht="15.75" customHeight="1">
+    <row r="911" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -31343,7 +31449,7 @@
       <c r="AD911" s="1"/>
       <c r="AE911" s="1"/>
     </row>
-    <row r="912" spans="1:31" ht="15.75" customHeight="1">
+    <row r="912" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -31376,7 +31482,7 @@
       <c r="AD912" s="1"/>
       <c r="AE912" s="1"/>
     </row>
-    <row r="913" spans="1:31" ht="15.75" customHeight="1">
+    <row r="913" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -31409,7 +31515,7 @@
       <c r="AD913" s="1"/>
       <c r="AE913" s="1"/>
     </row>
-    <row r="914" spans="1:31" ht="15.75" customHeight="1">
+    <row r="914" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -31442,7 +31548,7 @@
       <c r="AD914" s="1"/>
       <c r="AE914" s="1"/>
     </row>
-    <row r="915" spans="1:31" ht="15.75" customHeight="1">
+    <row r="915" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -31475,7 +31581,7 @@
       <c r="AD915" s="1"/>
       <c r="AE915" s="1"/>
     </row>
-    <row r="916" spans="1:31" ht="15.75" customHeight="1">
+    <row r="916" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -31508,7 +31614,7 @@
       <c r="AD916" s="1"/>
       <c r="AE916" s="1"/>
     </row>
-    <row r="917" spans="1:31" ht="15.75" customHeight="1">
+    <row r="917" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -31541,7 +31647,7 @@
       <c r="AD917" s="1"/>
       <c r="AE917" s="1"/>
     </row>
-    <row r="918" spans="1:31" ht="15.75" customHeight="1">
+    <row r="918" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -31574,7 +31680,7 @@
       <c r="AD918" s="1"/>
       <c r="AE918" s="1"/>
     </row>
-    <row r="919" spans="1:31" ht="15.75" customHeight="1">
+    <row r="919" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -31607,7 +31713,7 @@
       <c r="AD919" s="1"/>
       <c r="AE919" s="1"/>
     </row>
-    <row r="920" spans="1:31" ht="15.75" customHeight="1">
+    <row r="920" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -31640,7 +31746,7 @@
       <c r="AD920" s="1"/>
       <c r="AE920" s="1"/>
     </row>
-    <row r="921" spans="1:31" ht="15.75" customHeight="1">
+    <row r="921" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
